--- a/DataFiles/TestGeneric.xlsx
+++ b/DataFiles/TestGeneric.xlsx
@@ -86,7 +86,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1438" uniqueCount="1029">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1438" uniqueCount="1030">
   <si>
     <t>Iteration</t>
   </si>
@@ -3073,66 +3073,12 @@
     <t>Pass</t>
   </si>
   <si>
-    <t>773</t>
-  </si>
-  <si>
-    <t>Chakradhar</t>
-  </si>
-  <si>
-    <t>Khanna</t>
-  </si>
-  <si>
-    <t>Jagadish</t>
-  </si>
-  <si>
-    <t>Dhawan</t>
-  </si>
-  <si>
-    <t>428521</t>
-  </si>
-  <si>
-    <t>UP901/0001036/2021</t>
-  </si>
-  <si>
-    <t xml:space="preserve">  428721</t>
-  </si>
-  <si>
-    <t>UP90120210000014</t>
-  </si>
-  <si>
-    <t>Sachin</t>
-  </si>
-  <si>
-    <t>Bhat</t>
-  </si>
-  <si>
-    <t>Bhupati</t>
-  </si>
-  <si>
-    <t>Marar</t>
-  </si>
-  <si>
-    <t>428921</t>
-  </si>
-  <si>
-    <t>UP901/0000311/2021</t>
-  </si>
-  <si>
-    <t>Chandra</t>
-  </si>
-  <si>
     <t>Verma</t>
   </si>
   <si>
-    <t>Achintya</t>
-  </si>
-  <si>
     <t>Dutta</t>
   </si>
   <si>
-    <t>429021</t>
-  </si>
-  <si>
     <t>UP901/0001037/2021</t>
   </si>
   <si>
@@ -3172,7 +3118,64 @@
     <t>774</t>
   </si>
   <si>
-    <t>312</t>
+    <t>Kamla</t>
+  </si>
+  <si>
+    <t>Kapoor</t>
+  </si>
+  <si>
+    <t>Opaline</t>
+  </si>
+  <si>
+    <t>Trivedi</t>
+  </si>
+  <si>
+    <t>429821</t>
+  </si>
+  <si>
+    <t>UP901/0001039/2021</t>
+  </si>
+  <si>
+    <t xml:space="preserve">  429921</t>
+  </si>
+  <si>
+    <t>UP90120210000015</t>
+  </si>
+  <si>
+    <t>Adripathi</t>
+  </si>
+  <si>
+    <t>Khan</t>
+  </si>
+  <si>
+    <t>Chidaakaash</t>
+  </si>
+  <si>
+    <t>Johar</t>
+  </si>
+  <si>
+    <t>430021</t>
+  </si>
+  <si>
+    <t>UP901/0000312/2021</t>
+  </si>
+  <si>
+    <t>Adhiraj</t>
+  </si>
+  <si>
+    <t>Triloki Nath</t>
+  </si>
+  <si>
+    <t>Mishra</t>
+  </si>
+  <si>
+    <t>430121</t>
+  </si>
+  <si>
+    <t>313</t>
+  </si>
+  <si>
+    <t>10-06-2020</t>
   </si>
 </sst>
 </file>
@@ -3365,7 +3368,7 @@
     <xf numFmtId="0" fontId="3" fillId="0" borderId="0"/>
     <xf numFmtId="0" fontId="3" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="83">
+  <cellXfs count="84">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
@@ -3520,6 +3523,9 @@
     </xf>
     <xf numFmtId="0" fontId="5" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="49" fontId="0" fillId="0" borderId="1" xfId="0" quotePrefix="1" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
     </xf>
   </cellXfs>
   <cellStyles count="39">
@@ -3911,8 +3917,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
   <dimension ref="A1:AS89"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="AI1" workbookViewId="0">
-      <selection activeCell="AI2" sqref="AI2:AO3"/>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="A11" sqref="A11"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15"/>
@@ -4144,19 +4150,19 @@
         <v>871</v>
       </c>
       <c r="N2" s="49" t="s">
-        <v>996</v>
+        <v>1010</v>
       </c>
       <c r="O2" s="49" t="s">
-        <v>997</v>
+        <v>1011</v>
       </c>
       <c r="P2" s="49" t="s">
         <v>50</v>
       </c>
       <c r="Q2" s="49" t="s">
-        <v>998</v>
+        <v>1012</v>
       </c>
       <c r="R2" s="49" t="s">
-        <v>999</v>
+        <v>1013</v>
       </c>
       <c r="S2" s="50" t="s">
         <v>870</v>
@@ -4195,13 +4201,13 @@
         <v>874</v>
       </c>
       <c r="AE2" s="59" t="s">
-        <v>1000</v>
+        <v>1014</v>
       </c>
       <c r="AF2" s="59" t="s">
         <v>941</v>
       </c>
       <c r="AG2" s="59" t="s">
-        <v>1001</v>
+        <v>1015</v>
       </c>
       <c r="AH2" s="59" t="s">
         <v>871</v>
@@ -4357,13 +4363,13 @@
       </c>
       <c r="P4" s="81" t="str">
         <f ca="1">INDIRECT(S4)</f>
-        <v>UP901/0001036/2021</v>
+        <v>UP901/0001039/2021</v>
       </c>
       <c r="Q4" s="56" t="s">
-        <v>1002</v>
+        <v>1016</v>
       </c>
       <c r="R4" s="56" t="s">
-        <v>1003</v>
+        <v>1017</v>
       </c>
       <c r="S4" s="49" t="s">
         <v>991</v>
@@ -4524,19 +4530,19 @@
         <v>1028</v>
       </c>
       <c r="K6" s="49" t="s">
-        <v>1004</v>
+        <v>1018</v>
       </c>
       <c r="L6" s="49" t="s">
-        <v>1005</v>
+        <v>1019</v>
       </c>
       <c r="M6" s="49" t="s">
         <v>944</v>
       </c>
       <c r="N6" s="49" t="s">
-        <v>1006</v>
+        <v>1020</v>
       </c>
       <c r="O6" s="49" t="s">
-        <v>1007</v>
+        <v>1021</v>
       </c>
       <c r="P6" s="50" t="s">
         <v>870</v>
@@ -4575,13 +4581,13 @@
         <v>874</v>
       </c>
       <c r="AB6" s="48" t="s">
-        <v>1008</v>
+        <v>1022</v>
       </c>
       <c r="AC6" s="55" t="s">
         <v>941</v>
       </c>
       <c r="AD6" t="s">
-        <v>1009</v>
+        <v>1023</v>
       </c>
       <c r="AE6" s="51" t="s">
         <v>871</v>
@@ -4759,7 +4765,7 @@
       </c>
       <c r="J8" s="80" t="str">
         <f ca="1">INDIRECT(AF6)</f>
-        <v>UP901/0000311/2021</v>
+        <v>UP901/0000312/2021</v>
       </c>
       <c r="K8" s="80" t="s">
         <v>871</v>
@@ -4771,19 +4777,19 @@
         <v>871</v>
       </c>
       <c r="N8" s="49" t="s">
-        <v>1010</v>
+        <v>1024</v>
       </c>
       <c r="O8" s="49" t="s">
-        <v>1011</v>
+        <v>995</v>
       </c>
       <c r="P8" s="49" t="s">
         <v>50</v>
       </c>
       <c r="Q8" s="49" t="s">
-        <v>1012</v>
+        <v>1025</v>
       </c>
       <c r="R8" s="49" t="s">
-        <v>1013</v>
+        <v>1026</v>
       </c>
       <c r="S8" s="50" t="s">
         <v>870</v>
@@ -4822,13 +4828,13 @@
         <v>874</v>
       </c>
       <c r="AE8" s="82" t="s">
-        <v>1014</v>
+        <v>1027</v>
       </c>
       <c r="AF8" s="59" t="s">
         <v>941</v>
       </c>
       <c r="AG8" s="59" t="s">
-        <v>1015</v>
+        <v>997</v>
       </c>
       <c r="AH8" s="59" t="s">
         <v>871</v>
@@ -5048,28 +5054,28 @@
         <v>973</v>
       </c>
       <c r="Q10" s="66" t="s">
-        <v>1027</v>
+        <v>1009</v>
       </c>
       <c r="R10" s="66" t="s">
-        <v>995</v>
-      </c>
-      <c r="S10" s="66" t="s">
-        <v>995</v>
+        <v>1009</v>
+      </c>
+      <c r="S10" s="83" t="s">
+        <v>1029</v>
       </c>
       <c r="T10" s="63" t="s">
-        <v>1016</v>
+        <v>998</v>
       </c>
       <c r="U10" s="68" t="s">
-        <v>1017</v>
+        <v>999</v>
       </c>
       <c r="V10" s="64" t="s">
         <v>944</v>
       </c>
       <c r="W10" s="68" t="s">
-        <v>1018</v>
+        <v>1000</v>
       </c>
       <c r="X10" s="63" t="s">
-        <v>1019</v>
+        <v>1001</v>
       </c>
       <c r="Y10" s="64" t="s">
         <v>870</v>
@@ -5120,10 +5126,10 @@
         <v>994</v>
       </c>
       <c r="AO10" t="s">
-        <v>1020</v>
+        <v>1002</v>
       </c>
       <c r="AP10" s="63" t="s">
-        <v>1021</v>
+        <v>1003</v>
       </c>
       <c r="AQ10" s="71" t="s">
         <v>871</v>
@@ -5312,19 +5318,19 @@
         <v>871</v>
       </c>
       <c r="N12" s="49" t="s">
-        <v>1022</v>
+        <v>1004</v>
       </c>
       <c r="O12" s="49" t="s">
-        <v>1019</v>
+        <v>1001</v>
       </c>
       <c r="P12" s="49" t="s">
         <v>50</v>
       </c>
       <c r="Q12" s="49" t="s">
-        <v>1023</v>
+        <v>1005</v>
       </c>
       <c r="R12" s="49" t="s">
-        <v>1013</v>
+        <v>996</v>
       </c>
       <c r="S12" s="50" t="s">
         <v>870</v>
@@ -5363,13 +5369,13 @@
         <v>874</v>
       </c>
       <c r="AE12" s="59" t="s">
-        <v>1024</v>
+        <v>1006</v>
       </c>
       <c r="AF12" s="59" t="s">
         <v>941</v>
       </c>
       <c r="AG12" s="59" t="s">
-        <v>1025</v>
+        <v>1007</v>
       </c>
       <c r="AH12" s="59" t="s">
         <v>871</v>
@@ -5507,7 +5513,7 @@
       </c>
       <c r="L14" s="71" t="str">
         <f ca="1">INDIRECT(T14)</f>
-        <v>UP90120210000014</v>
+        <v>UP90120210000015</v>
       </c>
       <c r="M14" s="68" t="s">
         <v>941</v>
@@ -5525,7 +5531,7 @@
         <v>826</v>
       </c>
       <c r="R14" s="68" t="s">
-        <v>1026</v>
+        <v>1008</v>
       </c>
       <c r="S14" s="68" t="s">
         <v>994</v>

--- a/DataFiles/TestGeneric.xlsx
+++ b/DataFiles/TestGeneric.xlsx
@@ -3115,9 +3115,6 @@
     <t>429321</t>
   </si>
   <si>
-    <t>774</t>
-  </si>
-  <si>
     <t>Kamla</t>
   </si>
   <si>
@@ -3172,10 +3169,13 @@
     <t>430121</t>
   </si>
   <si>
-    <t>313</t>
-  </si>
-  <si>
     <t>10-06-2020</t>
+  </si>
+  <si>
+    <t>315</t>
+  </si>
+  <si>
+    <t>776</t>
   </si>
 </sst>
 </file>
@@ -3917,8 +3917,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
   <dimension ref="A1:AS89"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="A11" sqref="A11"/>
+    <sheetView tabSelected="1" topLeftCell="L1" workbookViewId="0">
+      <selection activeCell="R10" sqref="R10"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15"/>
@@ -4150,19 +4150,19 @@
         <v>871</v>
       </c>
       <c r="N2" s="49" t="s">
+        <v>1009</v>
+      </c>
+      <c r="O2" s="49" t="s">
         <v>1010</v>
-      </c>
-      <c r="O2" s="49" t="s">
-        <v>1011</v>
       </c>
       <c r="P2" s="49" t="s">
         <v>50</v>
       </c>
       <c r="Q2" s="49" t="s">
+        <v>1011</v>
+      </c>
+      <c r="R2" s="49" t="s">
         <v>1012</v>
-      </c>
-      <c r="R2" s="49" t="s">
-        <v>1013</v>
       </c>
       <c r="S2" s="50" t="s">
         <v>870</v>
@@ -4201,13 +4201,13 @@
         <v>874</v>
       </c>
       <c r="AE2" s="59" t="s">
-        <v>1014</v>
+        <v>1013</v>
       </c>
       <c r="AF2" s="59" t="s">
         <v>941</v>
       </c>
       <c r="AG2" s="59" t="s">
-        <v>1015</v>
+        <v>1014</v>
       </c>
       <c r="AH2" s="59" t="s">
         <v>871</v>
@@ -4366,10 +4366,10 @@
         <v>UP901/0001039/2021</v>
       </c>
       <c r="Q4" s="56" t="s">
+        <v>1015</v>
+      </c>
+      <c r="R4" s="56" t="s">
         <v>1016</v>
-      </c>
-      <c r="R4" s="56" t="s">
-        <v>1017</v>
       </c>
       <c r="S4" s="49" t="s">
         <v>991</v>
@@ -4530,19 +4530,19 @@
         <v>1028</v>
       </c>
       <c r="K6" s="49" t="s">
+        <v>1017</v>
+      </c>
+      <c r="L6" s="49" t="s">
         <v>1018</v>
-      </c>
-      <c r="L6" s="49" t="s">
-        <v>1019</v>
       </c>
       <c r="M6" s="49" t="s">
         <v>944</v>
       </c>
       <c r="N6" s="49" t="s">
+        <v>1019</v>
+      </c>
+      <c r="O6" s="49" t="s">
         <v>1020</v>
-      </c>
-      <c r="O6" s="49" t="s">
-        <v>1021</v>
       </c>
       <c r="P6" s="50" t="s">
         <v>870</v>
@@ -4581,13 +4581,13 @@
         <v>874</v>
       </c>
       <c r="AB6" s="48" t="s">
-        <v>1022</v>
+        <v>1021</v>
       </c>
       <c r="AC6" s="55" t="s">
         <v>941</v>
       </c>
       <c r="AD6" t="s">
-        <v>1023</v>
+        <v>1022</v>
       </c>
       <c r="AE6" s="51" t="s">
         <v>871</v>
@@ -4777,7 +4777,7 @@
         <v>871</v>
       </c>
       <c r="N8" s="49" t="s">
-        <v>1024</v>
+        <v>1023</v>
       </c>
       <c r="O8" s="49" t="s">
         <v>995</v>
@@ -4786,10 +4786,10 @@
         <v>50</v>
       </c>
       <c r="Q8" s="49" t="s">
+        <v>1024</v>
+      </c>
+      <c r="R8" s="49" t="s">
         <v>1025</v>
-      </c>
-      <c r="R8" s="49" t="s">
-        <v>1026</v>
       </c>
       <c r="S8" s="50" t="s">
         <v>870</v>
@@ -4828,7 +4828,7 @@
         <v>874</v>
       </c>
       <c r="AE8" s="82" t="s">
-        <v>1027</v>
+        <v>1026</v>
       </c>
       <c r="AF8" s="59" t="s">
         <v>941</v>
@@ -5054,13 +5054,13 @@
         <v>973</v>
       </c>
       <c r="Q10" s="66" t="s">
-        <v>1009</v>
+        <v>1029</v>
       </c>
       <c r="R10" s="66" t="s">
-        <v>1009</v>
+        <v>1029</v>
       </c>
       <c r="S10" s="83" t="s">
-        <v>1029</v>
+        <v>1027</v>
       </c>
       <c r="T10" s="63" t="s">
         <v>998</v>

--- a/DataFiles/TestGeneric.xlsx
+++ b/DataFiles/TestGeneric.xlsx
@@ -3172,10 +3172,10 @@
     <t>10-06-2020</t>
   </si>
   <si>
-    <t>315</t>
-  </si>
-  <si>
-    <t>776</t>
+    <t>316</t>
+  </si>
+  <si>
+    <t>777</t>
   </si>
 </sst>
 </file>

--- a/DataFiles/TestGeneric.xlsx
+++ b/DataFiles/TestGeneric.xlsx
@@ -8,14 +8,15 @@
   </bookViews>
   <sheets>
     <sheet name="TestData" sheetId="1" r:id="rId1"/>
-    <sheet name="MasterData" sheetId="2" r:id="rId2"/>
-    <sheet name="RTOData" sheetId="3" r:id="rId3"/>
+    <sheet name="Results" sheetId="4" r:id="rId2"/>
+    <sheet name="MasterData" sheetId="2" r:id="rId3"/>
+    <sheet name="RTOData" sheetId="3" r:id="rId4"/>
   </sheets>
   <definedNames>
     <definedName name="_638">RTOData!#REF!</definedName>
     <definedName name="_639">RTOData!#REF!</definedName>
     <definedName name="_640">RTOData!#REF!</definedName>
-    <definedName name="_xlnm._FilterDatabase" localSheetId="2" hidden="1">RTOData!$B$1:$AL$14</definedName>
+    <definedName name="_xlnm._FilterDatabase" localSheetId="3" hidden="1">RTOData!$B$1:$AL$14</definedName>
     <definedName name="AN">RTOData!$A$2:$A$3</definedName>
     <definedName name="AP">RTOData!$B$2:$B$7</definedName>
     <definedName name="ApplicationURL">MasterData!#REF!</definedName>
@@ -86,7 +87,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1438" uniqueCount="1030">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1487" uniqueCount="1052">
   <si>
     <t>Iteration</t>
   </si>
@@ -3127,15 +3128,6 @@
     <t>Trivedi</t>
   </si>
   <si>
-    <t>429821</t>
-  </si>
-  <si>
-    <t>UP901/0001039/2021</t>
-  </si>
-  <si>
-    <t xml:space="preserve">  429921</t>
-  </si>
-  <si>
     <t>UP90120210000015</t>
   </si>
   <si>
@@ -3172,17 +3164,95 @@
     <t>10-06-2020</t>
   </si>
   <si>
-    <t>316</t>
-  </si>
-  <si>
-    <t>777</t>
+    <t>Test Automation Results</t>
+  </si>
+  <si>
+    <t>TestCase</t>
+  </si>
+  <si>
+    <t>Description</t>
+  </si>
+  <si>
+    <t>DOB</t>
+  </si>
+  <si>
+    <t>Date and Time of Run</t>
+  </si>
+  <si>
+    <t>NewLL</t>
+  </si>
+  <si>
+    <t>NewDL</t>
+  </si>
+  <si>
+    <t xml:space="preserve">LL </t>
+  </si>
+  <si>
+    <t>Backlog</t>
+  </si>
+  <si>
+    <t>Ref_LL</t>
+  </si>
+  <si>
+    <t>Ref_DL</t>
+  </si>
+  <si>
+    <t>LL Number</t>
+  </si>
+  <si>
+    <t>TC01 will submit end to end flows till print</t>
+  </si>
+  <si>
+    <t>Based on above LL TC02 will submit NewDL</t>
+  </si>
+  <si>
+    <t>TC03 will submit LLBacklog</t>
+  </si>
+  <si>
+    <t>TC05 will Submit DL Backlog</t>
+  </si>
+  <si>
+    <t>Based on above backlog TC04 will apply for NewLL</t>
+  </si>
+  <si>
+    <t>Based on above backlog TC06 will apply NewLL</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Module </t>
+  </si>
+  <si>
+    <t>TC_ID</t>
+  </si>
+  <si>
+    <t>Registered Ph No</t>
+  </si>
+  <si>
+    <t>NA</t>
+  </si>
+  <si>
+    <t>StartTimeofRun</t>
+  </si>
+  <si>
+    <t>EndTimeofRun</t>
+  </si>
+  <si>
+    <t>Reference</t>
+  </si>
+  <si>
+    <t>318</t>
+  </si>
+  <si>
+    <t>778</t>
   </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
-  <fonts count="7">
+  <numFmts count="1">
+    <numFmt numFmtId="164" formatCode="dd/mmm/yy\ h:mm\ AM/PM"/>
+  </numFmts>
+  <fonts count="9">
     <font>
       <sz val="11"/>
       <color theme="1"/>
@@ -3233,8 +3303,23 @@
       <family val="2"/>
       <scheme val="minor"/>
     </font>
+    <font>
+      <sz val="48"/>
+      <color theme="0"/>
+      <name val="Cambria"/>
+      <family val="1"/>
+      <scheme val="major"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="11"/>
+      <color rgb="FF002060"/>
+      <name val="Calibri"/>
+      <family val="2"/>
+      <scheme val="minor"/>
+    </font>
   </fonts>
-  <fills count="10">
+  <fills count="12">
     <fill>
       <patternFill patternType="none"/>
     </fill>
@@ -3289,8 +3374,20 @@
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FF92D050"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FF002060"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
   </fills>
-  <borders count="3">
+  <borders count="4">
     <border>
       <left/>
       <right/>
@@ -3321,6 +3418,15 @@
       <top style="thin">
         <color indexed="64"/>
       </top>
+      <bottom style="thin">
+        <color indexed="64"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
+      <right/>
+      <top/>
       <bottom style="thin">
         <color indexed="64"/>
       </bottom>
@@ -3368,7 +3474,7 @@
     <xf numFmtId="0" fontId="3" fillId="0" borderId="0"/>
     <xf numFmtId="0" fontId="3" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="84">
+  <cellXfs count="89">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
@@ -3449,9 +3555,6 @@
     <xf numFmtId="0" fontId="2" fillId="5" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="6" borderId="1" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
     <xf numFmtId="0" fontId="4" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
@@ -3526,6 +3629,24 @@
     </xf>
     <xf numFmtId="49" fontId="0" fillId="0" borderId="1" xfId="0" quotePrefix="1" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="10" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="14" fontId="0" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="164" fontId="0" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="11" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="11" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
     </xf>
   </cellXfs>
   <cellStyles count="39">
@@ -3915,151 +4036,153 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <dimension ref="A1:AS89"/>
+  <dimension ref="A1:AU89"/>
   <sheetViews>
     <sheetView tabSelected="1" topLeftCell="L1" workbookViewId="0">
-      <selection activeCell="R10" sqref="R10"/>
+      <selection activeCell="S10" sqref="S10"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15"/>
   <cols>
-    <col min="1" max="1" width="10.42578125" style="71" bestFit="1" customWidth="1" collapsed="1"/>
-    <col min="2" max="2" width="8.7109375" style="71" bestFit="1" customWidth="1" collapsed="1"/>
-    <col min="3" max="3" width="8.28515625" style="71" customWidth="1" collapsed="1"/>
-    <col min="4" max="4" width="23" style="71" bestFit="1" customWidth="1" collapsed="1"/>
-    <col min="5" max="5" width="15.5703125" style="71" customWidth="1" collapsed="1"/>
-    <col min="6" max="6" width="5.5703125" style="71" bestFit="1" customWidth="1" collapsed="1"/>
-    <col min="7" max="7" width="9.140625" style="71" bestFit="1" customWidth="1" collapsed="1"/>
-    <col min="8" max="8" width="11.7109375" style="71" customWidth="1" collapsed="1"/>
-    <col min="9" max="9" width="17.5703125" style="71" bestFit="1" customWidth="1" collapsed="1"/>
-    <col min="10" max="10" width="12.85546875" style="71" customWidth="1" collapsed="1"/>
-    <col min="11" max="11" width="26.28515625" style="71" bestFit="1" customWidth="1" collapsed="1"/>
-    <col min="12" max="12" width="24.42578125" style="71" customWidth="1" collapsed="1"/>
-    <col min="13" max="13" width="12.85546875" style="71" bestFit="1" customWidth="1" collapsed="1"/>
-    <col min="14" max="14" width="26.28515625" style="71" bestFit="1" customWidth="1" collapsed="1"/>
-    <col min="15" max="15" width="15.85546875" style="71" bestFit="1" customWidth="1" collapsed="1"/>
-    <col min="16" max="16" width="25.140625" style="71" bestFit="1" customWidth="1" collapsed="1"/>
-    <col min="17" max="17" width="52" style="71" bestFit="1" customWidth="1" collapsed="1"/>
-    <col min="18" max="18" width="17.7109375" style="71" bestFit="1" customWidth="1" collapsed="1"/>
-    <col min="19" max="19" width="13.85546875" style="71" bestFit="1" customWidth="1" collapsed="1"/>
-    <col min="20" max="20" width="25.85546875" style="71" bestFit="1" customWidth="1" collapsed="1"/>
-    <col min="21" max="21" width="27" style="71" bestFit="1" customWidth="1" collapsed="1"/>
-    <col min="22" max="22" width="43.5703125" style="71" bestFit="1" customWidth="1" collapsed="1"/>
-    <col min="23" max="23" width="26.28515625" style="71" bestFit="1" customWidth="1" collapsed="1"/>
-    <col min="24" max="24" width="27" style="71" bestFit="1" customWidth="1" collapsed="1"/>
-    <col min="25" max="25" width="43.5703125" style="71" bestFit="1" customWidth="1" collapsed="1"/>
-    <col min="26" max="26" width="26.28515625" style="71" bestFit="1" customWidth="1" collapsed="1"/>
-    <col min="27" max="27" width="25.85546875" style="71" bestFit="1" customWidth="1" collapsed="1"/>
-    <col min="28" max="28" width="14.5703125" style="71" bestFit="1" customWidth="1" collapsed="1"/>
-    <col min="29" max="29" width="12.85546875" style="71" bestFit="1" customWidth="1" collapsed="1"/>
-    <col min="30" max="30" width="10.28515625" style="71" customWidth="1" collapsed="1"/>
-    <col min="31" max="31" width="13.85546875" style="71" bestFit="1" customWidth="1" collapsed="1"/>
-    <col min="32" max="32" width="14.7109375" style="71" customWidth="1" collapsed="1"/>
-    <col min="33" max="33" width="19.42578125" style="71" bestFit="1" customWidth="1" collapsed="1"/>
-    <col min="34" max="34" width="14.7109375" style="71" customWidth="1" collapsed="1"/>
-    <col min="35" max="35" width="18.7109375" style="71" bestFit="1" customWidth="1" collapsed="1"/>
-    <col min="36" max="36" width="24" style="71" bestFit="1" customWidth="1" collapsed="1"/>
-    <col min="37" max="37" width="32.42578125" style="71" bestFit="1" customWidth="1" collapsed="1"/>
-    <col min="38" max="38" width="20.85546875" style="71" bestFit="1" customWidth="1" collapsed="1"/>
-    <col min="39" max="39" width="19.7109375" style="71" bestFit="1" customWidth="1" collapsed="1"/>
-    <col min="40" max="40" width="15.5703125" style="71" bestFit="1" customWidth="1" collapsed="1"/>
-    <col min="41" max="41" width="27" style="71" bestFit="1" customWidth="1" collapsed="1"/>
-    <col min="42" max="42" width="18.7109375" style="71" bestFit="1" customWidth="1" collapsed="1"/>
-    <col min="43" max="43" width="16.42578125" style="71" bestFit="1" customWidth="1" collapsed="1"/>
-    <col min="44" max="44" width="12.5703125" style="71" bestFit="1" customWidth="1" collapsed="1"/>
-    <col min="45" max="45" width="5.85546875" style="71" bestFit="1" customWidth="1" collapsed="1"/>
-    <col min="46" max="16384" width="9.140625" style="71" collapsed="1"/>
+    <col min="1" max="1" width="10" style="70" bestFit="1" customWidth="1" collapsed="1"/>
+    <col min="2" max="2" width="8.7109375" style="70" bestFit="1" customWidth="1" collapsed="1"/>
+    <col min="3" max="3" width="8.28515625" style="70" customWidth="1" collapsed="1"/>
+    <col min="4" max="4" width="23" style="70" bestFit="1" customWidth="1" collapsed="1"/>
+    <col min="5" max="5" width="15.5703125" style="70" customWidth="1" collapsed="1"/>
+    <col min="6" max="6" width="5.5703125" style="70" bestFit="1" customWidth="1" collapsed="1"/>
+    <col min="7" max="7" width="9.140625" style="70" bestFit="1" customWidth="1" collapsed="1"/>
+    <col min="8" max="8" width="11.7109375" style="70" customWidth="1" collapsed="1"/>
+    <col min="9" max="9" width="17.5703125" style="70" bestFit="1" customWidth="1" collapsed="1"/>
+    <col min="10" max="10" width="19.42578125" style="70" bestFit="1" customWidth="1" collapsed="1"/>
+    <col min="11" max="11" width="26.28515625" style="70" bestFit="1" customWidth="1" collapsed="1"/>
+    <col min="12" max="12" width="24.42578125" style="70" customWidth="1" collapsed="1"/>
+    <col min="13" max="13" width="12.85546875" style="70" bestFit="1" customWidth="1" collapsed="1"/>
+    <col min="14" max="14" width="26.28515625" style="70" bestFit="1" customWidth="1" collapsed="1"/>
+    <col min="15" max="15" width="15.85546875" style="70" bestFit="1" customWidth="1" collapsed="1"/>
+    <col min="16" max="16" width="25.140625" style="70" bestFit="1" customWidth="1" collapsed="1"/>
+    <col min="17" max="17" width="52" style="70" bestFit="1" customWidth="1" collapsed="1"/>
+    <col min="18" max="18" width="17.7109375" style="70" bestFit="1" customWidth="1" collapsed="1"/>
+    <col min="19" max="19" width="13.85546875" style="70" bestFit="1" customWidth="1" collapsed="1"/>
+    <col min="20" max="20" width="25.85546875" style="70" bestFit="1" customWidth="1" collapsed="1"/>
+    <col min="21" max="21" width="27" style="70" bestFit="1" customWidth="1" collapsed="1"/>
+    <col min="22" max="22" width="43.5703125" style="70" bestFit="1" customWidth="1" collapsed="1"/>
+    <col min="23" max="23" width="26.28515625" style="70" bestFit="1" customWidth="1" collapsed="1"/>
+    <col min="24" max="24" width="27" style="70" bestFit="1" customWidth="1" collapsed="1"/>
+    <col min="25" max="25" width="43.5703125" style="70" bestFit="1" customWidth="1" collapsed="1"/>
+    <col min="26" max="26" width="26.28515625" style="70" bestFit="1" customWidth="1" collapsed="1"/>
+    <col min="27" max="27" width="25.85546875" style="70" bestFit="1" customWidth="1" collapsed="1"/>
+    <col min="28" max="28" width="14.5703125" style="70" bestFit="1" customWidth="1" collapsed="1"/>
+    <col min="29" max="29" width="12.85546875" style="70" bestFit="1" customWidth="1" collapsed="1"/>
+    <col min="30" max="30" width="19.42578125" style="70" bestFit="1" customWidth="1" collapsed="1"/>
+    <col min="31" max="31" width="13.85546875" style="70" bestFit="1" customWidth="1" collapsed="1"/>
+    <col min="32" max="32" width="14.7109375" style="70" customWidth="1" collapsed="1"/>
+    <col min="33" max="33" width="19.42578125" style="70" bestFit="1" customWidth="1" collapsed="1"/>
+    <col min="34" max="34" width="14.7109375" style="70" customWidth="1" collapsed="1"/>
+    <col min="35" max="35" width="18.7109375" style="70" bestFit="1" customWidth="1" collapsed="1"/>
+    <col min="36" max="36" width="24" style="70" bestFit="1" customWidth="1" collapsed="1"/>
+    <col min="37" max="37" width="32.42578125" style="70" bestFit="1" customWidth="1" collapsed="1"/>
+    <col min="38" max="38" width="20.85546875" style="70" bestFit="1" customWidth="1" collapsed="1"/>
+    <col min="39" max="39" width="19.7109375" style="70" bestFit="1" customWidth="1" collapsed="1"/>
+    <col min="40" max="40" width="15.5703125" style="70" bestFit="1" customWidth="1" collapsed="1"/>
+    <col min="41" max="41" width="27" style="70" bestFit="1" customWidth="1" collapsed="1"/>
+    <col min="42" max="42" width="18.7109375" style="70" bestFit="1" customWidth="1" collapsed="1"/>
+    <col min="43" max="43" width="16.42578125" style="70" bestFit="1" customWidth="1" collapsed="1"/>
+    <col min="44" max="44" width="12.5703125" style="70" bestFit="1" customWidth="1" collapsed="1"/>
+    <col min="45" max="45" width="5.85546875" style="70" bestFit="1" customWidth="1" collapsed="1"/>
+    <col min="46" max="46" width="15" style="70" bestFit="1" customWidth="1" collapsed="1"/>
+    <col min="47" max="47" width="14.140625" style="70" bestFit="1" customWidth="1" collapsed="1"/>
+    <col min="48" max="16384" width="9.140625" style="70" collapsed="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:45" s="60" customFormat="1" ht="21.75" customHeight="1">
-      <c r="A1" s="74" t="s">
+    <row r="1" spans="1:47" s="59" customFormat="1" ht="21.75" customHeight="1">
+      <c r="A1" s="73" t="s">
         <v>1</v>
       </c>
-      <c r="B1" s="74" t="s">
+      <c r="B1" s="73" t="s">
         <v>0</v>
       </c>
-      <c r="C1" s="74" t="s">
+      <c r="C1" s="73" t="s">
         <v>882</v>
       </c>
-      <c r="D1" s="74" t="s">
+      <c r="D1" s="73" t="s">
         <v>43</v>
       </c>
-      <c r="E1" s="74" t="s">
+      <c r="E1" s="73" t="s">
         <v>911</v>
       </c>
-      <c r="F1" s="74" t="s">
+      <c r="F1" s="73" t="s">
         <v>2</v>
       </c>
-      <c r="G1" s="74" t="s">
+      <c r="G1" s="73" t="s">
         <v>815</v>
       </c>
-      <c r="H1" s="74" t="s">
+      <c r="H1" s="73" t="s">
         <v>816</v>
       </c>
-      <c r="I1" s="74" t="s">
+      <c r="I1" s="73" t="s">
         <v>924</v>
       </c>
-      <c r="J1" s="74" t="s">
+      <c r="J1" s="73" t="s">
         <v>930</v>
       </c>
-      <c r="K1" s="74" t="s">
+      <c r="K1" s="73" t="s">
         <v>931</v>
       </c>
-      <c r="L1" s="74" t="s">
+      <c r="L1" s="73" t="s">
         <v>932</v>
       </c>
-      <c r="M1" s="74" t="s">
+      <c r="M1" s="73" t="s">
         <v>933</v>
       </c>
-      <c r="N1" s="74" t="s">
+      <c r="N1" s="73" t="s">
         <v>889</v>
       </c>
-      <c r="O1" s="74" t="s">
+      <c r="O1" s="73" t="s">
         <v>890</v>
       </c>
-      <c r="P1" s="74" t="s">
+      <c r="P1" s="73" t="s">
         <v>896</v>
       </c>
-      <c r="Q1" s="74" t="s">
+      <c r="Q1" s="73" t="s">
         <v>891</v>
       </c>
-      <c r="R1" s="74" t="s">
+      <c r="R1" s="73" t="s">
         <v>892</v>
       </c>
-      <c r="S1" s="74" t="s">
+      <c r="S1" s="73" t="s">
         <v>44</v>
       </c>
-      <c r="T1" s="74" t="s">
+      <c r="T1" s="73" t="s">
         <v>45</v>
       </c>
-      <c r="U1" s="74" t="s">
+      <c r="U1" s="73" t="s">
         <v>893</v>
       </c>
-      <c r="V1" s="74" t="s">
+      <c r="V1" s="73" t="s">
         <v>46</v>
       </c>
-      <c r="W1" s="74" t="s">
+      <c r="W1" s="73" t="s">
         <v>894</v>
       </c>
-      <c r="X1" s="74" t="s">
+      <c r="X1" s="73" t="s">
         <v>47</v>
       </c>
-      <c r="Y1" s="74" t="s">
+      <c r="Y1" s="73" t="s">
         <v>895</v>
       </c>
-      <c r="Z1" s="74" t="s">
+      <c r="Z1" s="73" t="s">
         <v>877</v>
       </c>
-      <c r="AA1" s="74" t="s">
+      <c r="AA1" s="73" t="s">
         <v>907</v>
       </c>
-      <c r="AB1" s="74" t="s">
+      <c r="AB1" s="73" t="s">
         <v>918</v>
       </c>
-      <c r="AC1" s="75" t="s">
+      <c r="AC1" s="74" t="s">
         <v>872</v>
       </c>
-      <c r="AD1" s="75" t="s">
+      <c r="AD1" s="74" t="s">
         <v>873</v>
       </c>
       <c r="AE1" s="57" t="s">
@@ -4104,49 +4227,55 @@
       <c r="AR1" s="44" t="s">
         <v>905</v>
       </c>
-      <c r="AS1" s="74" t="s">
+      <c r="AS1" s="73" t="s">
         <v>923</v>
       </c>
-    </row>
-    <row r="2" spans="1:45" s="79" customFormat="1">
-      <c r="A2" s="73" t="s">
+      <c r="AT1" s="83" t="s">
+        <v>1047</v>
+      </c>
+      <c r="AU1" s="83" t="s">
+        <v>1048</v>
+      </c>
+    </row>
+    <row r="2" spans="1:47" s="78" customFormat="1">
+      <c r="A2" s="72" t="s">
         <v>938</v>
       </c>
-      <c r="B2" s="80" t="s">
+      <c r="B2" s="79" t="s">
         <v>934</v>
       </c>
-      <c r="C2" s="72" t="s">
+      <c r="C2" s="71" t="s">
         <v>880</v>
       </c>
-      <c r="D2" s="72" t="s">
+      <c r="D2" s="71" t="s">
         <v>39</v>
       </c>
-      <c r="E2" s="71" t="str">
+      <c r="E2" s="70" t="str">
         <f>VLOOKUP(D:D,MasterData!$1:$1048576,8,FALSE)</f>
         <v>CAS_SarathiCOV</v>
       </c>
-      <c r="F2" s="72" t="s">
+      <c r="F2" s="71" t="s">
         <v>36</v>
       </c>
-      <c r="G2" s="72" t="s">
+      <c r="G2" s="71" t="s">
         <v>807</v>
       </c>
-      <c r="H2" s="73" t="s">
+      <c r="H2" s="72" t="s">
         <v>871</v>
       </c>
-      <c r="I2" s="80" t="s">
+      <c r="I2" s="79" t="s">
         <v>926</v>
       </c>
-      <c r="J2" s="80" t="s">
+      <c r="J2" s="79" t="s">
         <v>871</v>
       </c>
-      <c r="K2" s="80" t="s">
+      <c r="K2" s="79" t="s">
         <v>871</v>
       </c>
-      <c r="L2" s="80" t="s">
+      <c r="L2" s="79" t="s">
         <v>871</v>
       </c>
-      <c r="M2" s="80" t="s">
+      <c r="M2" s="79" t="s">
         <v>871</v>
       </c>
       <c r="N2" s="49" t="s">
@@ -4185,94 +4314,88 @@
       <c r="Y2" s="52" t="s">
         <v>53</v>
       </c>
-      <c r="Z2" s="61" t="s">
+      <c r="Z2" s="60" t="s">
         <v>876</v>
       </c>
-      <c r="AA2" s="62" t="s">
+      <c r="AA2" s="61" t="s">
         <v>875</v>
       </c>
-      <c r="AB2" s="62" t="s">
+      <c r="AB2" s="61" t="s">
         <v>919</v>
       </c>
-      <c r="AC2" s="73" t="s">
+      <c r="AC2" s="72" t="s">
         <v>940</v>
       </c>
-      <c r="AD2" s="73" t="s">
+      <c r="AD2" s="72" t="s">
         <v>874</v>
       </c>
-      <c r="AE2" s="59" t="s">
-        <v>1013</v>
-      </c>
-      <c r="AF2" s="59" t="s">
-        <v>941</v>
-      </c>
-      <c r="AG2" s="59" t="s">
-        <v>1014</v>
-      </c>
-      <c r="AH2" s="59" t="s">
+      <c r="AE2" s="58"/>
+      <c r="AF2" s="58"/>
+      <c r="AG2" s="58"/>
+      <c r="AH2" s="58" t="s">
         <v>871</v>
       </c>
-      <c r="AI2" s="68"/>
-      <c r="AJ2" s="68"/>
-      <c r="AK2" s="68"/>
-      <c r="AL2" s="68"/>
-      <c r="AM2" s="68"/>
-      <c r="AN2" s="68"/>
-      <c r="AO2" s="68"/>
-      <c r="AP2" s="68" t="s">
+      <c r="AI2" s="67"/>
+      <c r="AJ2" s="67"/>
+      <c r="AK2" s="67"/>
+      <c r="AL2" s="67"/>
+      <c r="AM2" s="67"/>
+      <c r="AN2" s="67"/>
+      <c r="AO2" s="67"/>
+      <c r="AP2" s="67" t="s">
         <v>871</v>
       </c>
-      <c r="AQ2" s="68" t="s">
+      <c r="AQ2" s="67" t="s">
         <v>871</v>
       </c>
-      <c r="AR2" s="68" t="s">
+      <c r="AR2" s="67" t="s">
         <v>871</v>
       </c>
-      <c r="AS2" s="68" t="s">
+      <c r="AS2" s="67" t="s">
         <v>871</v>
       </c>
     </row>
-    <row r="3" spans="1:45" s="79" customFormat="1">
-      <c r="A3" s="74" t="s">
+    <row r="3" spans="1:47" s="78" customFormat="1">
+      <c r="A3" s="73" t="s">
         <v>1</v>
       </c>
-      <c r="B3" s="74" t="s">
+      <c r="B3" s="73" t="s">
         <v>0</v>
       </c>
-      <c r="C3" s="74" t="s">
+      <c r="C3" s="73" t="s">
         <v>882</v>
       </c>
-      <c r="D3" s="74" t="s">
+      <c r="D3" s="73" t="s">
         <v>43</v>
       </c>
-      <c r="E3" s="74" t="s">
+      <c r="E3" s="73" t="s">
         <v>911</v>
       </c>
-      <c r="F3" s="74" t="s">
+      <c r="F3" s="73" t="s">
         <v>2</v>
       </c>
-      <c r="G3" s="74" t="s">
+      <c r="G3" s="73" t="s">
         <v>815</v>
       </c>
-      <c r="H3" s="74" t="s">
+      <c r="H3" s="73" t="s">
         <v>816</v>
       </c>
-      <c r="I3" s="74" t="s">
+      <c r="I3" s="73" t="s">
         <v>936</v>
       </c>
-      <c r="J3" s="74" t="s">
+      <c r="J3" s="73" t="s">
         <v>46</v>
       </c>
-      <c r="K3" s="74" t="s">
+      <c r="K3" s="73" t="s">
         <v>877</v>
       </c>
-      <c r="L3" s="74" t="s">
+      <c r="L3" s="73" t="s">
         <v>907</v>
       </c>
-      <c r="M3" s="75" t="s">
+      <c r="M3" s="74" t="s">
         <v>872</v>
       </c>
-      <c r="N3" s="75" t="s">
+      <c r="N3" s="74" t="s">
         <v>873</v>
       </c>
       <c r="O3" s="57" t="s">
@@ -4281,95 +4404,101 @@
       <c r="P3" s="57" t="s">
         <v>878</v>
       </c>
-      <c r="Q3" s="76" t="s">
+      <c r="Q3" s="75" t="s">
         <v>48</v>
       </c>
-      <c r="R3" s="76" t="s">
+      <c r="R3" s="75" t="s">
         <v>922</v>
       </c>
-      <c r="S3" s="49"/>
-      <c r="T3" s="50"/>
-      <c r="U3" s="49"/>
+      <c r="S3" s="49" t="s">
+        <v>1049</v>
+      </c>
+      <c r="T3" s="83" t="s">
+        <v>1047</v>
+      </c>
+      <c r="U3" s="83" t="s">
+        <v>1048</v>
+      </c>
       <c r="V3" s="50"/>
       <c r="W3" s="50"/>
       <c r="X3" s="50"/>
       <c r="Y3" s="52"/>
       <c r="Z3" s="52"/>
-      <c r="AA3" s="61"/>
-      <c r="AB3" s="62"/>
-      <c r="AC3" s="62"/>
-      <c r="AD3" s="73"/>
-      <c r="AE3" s="73"/>
-      <c r="AF3" s="59"/>
-      <c r="AG3" s="59"/>
-      <c r="AH3" s="59"/>
-      <c r="AI3" s="59"/>
-      <c r="AJ3" s="68"/>
-      <c r="AK3" s="68"/>
-      <c r="AL3" s="68"/>
-      <c r="AM3" s="68"/>
-      <c r="AN3" s="68"/>
-      <c r="AO3" s="68"/>
-      <c r="AP3" s="68"/>
-      <c r="AQ3" s="68"/>
-      <c r="AR3" s="68"/>
-      <c r="AS3" s="68"/>
-    </row>
-    <row r="4" spans="1:45" s="79" customFormat="1">
-      <c r="A4" s="73" t="s">
+      <c r="AA3" s="60"/>
+      <c r="AB3" s="61"/>
+      <c r="AC3" s="61"/>
+      <c r="AD3" s="72"/>
+      <c r="AE3" s="72"/>
+      <c r="AF3" s="58"/>
+      <c r="AG3" s="58"/>
+      <c r="AH3" s="58"/>
+      <c r="AI3" s="58"/>
+      <c r="AJ3" s="67"/>
+      <c r="AK3" s="67"/>
+      <c r="AL3" s="67"/>
+      <c r="AM3" s="67"/>
+      <c r="AN3" s="67"/>
+      <c r="AO3" s="67"/>
+      <c r="AP3" s="67"/>
+      <c r="AQ3" s="67"/>
+      <c r="AR3" s="67"/>
+      <c r="AS3" s="67"/>
+    </row>
+    <row r="4" spans="1:47" s="78" customFormat="1">
+      <c r="A4" s="72" t="s">
         <v>939</v>
       </c>
-      <c r="B4" s="80" t="s">
+      <c r="B4" s="79" t="s">
         <v>934</v>
       </c>
-      <c r="C4" s="72" t="s">
+      <c r="C4" s="71" t="s">
         <v>880</v>
       </c>
-      <c r="D4" s="72" t="s">
+      <c r="D4" s="71" t="s">
         <v>39</v>
       </c>
-      <c r="E4" s="71" t="s">
+      <c r="E4" s="70" t="s">
         <v>909</v>
       </c>
-      <c r="F4" s="72" t="s">
+      <c r="F4" s="71" t="s">
         <v>36</v>
       </c>
-      <c r="G4" s="72" t="s">
+      <c r="G4" s="71" t="s">
         <v>807</v>
       </c>
-      <c r="H4" s="80" t="s">
+      <c r="H4" s="79" t="s">
         <v>871</v>
       </c>
-      <c r="I4" s="73" t="s">
+      <c r="I4" s="72" t="s">
         <v>871</v>
       </c>
       <c r="J4" s="50" t="s">
         <v>937</v>
       </c>
-      <c r="K4" s="61" t="s">
+      <c r="K4" s="60" t="s">
         <v>876</v>
       </c>
-      <c r="L4" s="62" t="s">
+      <c r="L4" s="61" t="s">
         <v>875</v>
       </c>
-      <c r="M4" s="73" t="s">
+      <c r="M4" s="72" t="s">
         <v>940</v>
       </c>
-      <c r="N4" s="73" t="s">
+      <c r="N4" s="72" t="s">
         <v>874</v>
       </c>
-      <c r="O4" s="63" t="s">
+      <c r="O4" s="62" t="s">
         <v>941</v>
       </c>
-      <c r="P4" s="81" t="str">
+      <c r="P4" s="80">
         <f ca="1">INDIRECT(S4)</f>
-        <v>UP901/0001039/2021</v>
-      </c>
-      <c r="Q4" s="56" t="s">
-        <v>1015</v>
+        <v>0</v>
+      </c>
+      <c r="Q4" s="56">
+        <v>429921</v>
       </c>
       <c r="R4" s="56" t="s">
-        <v>1016</v>
+        <v>1013</v>
       </c>
       <c r="S4" s="49" t="s">
         <v>991</v>
@@ -4381,106 +4510,106 @@
       <c r="X4" s="50"/>
       <c r="Y4" s="52"/>
       <c r="Z4" s="52"/>
-      <c r="AA4" s="61"/>
-      <c r="AB4" s="62"/>
-      <c r="AC4" s="62"/>
-      <c r="AD4" s="73"/>
-      <c r="AE4" s="73"/>
-      <c r="AF4" s="59"/>
-      <c r="AG4" s="59"/>
-      <c r="AH4" s="59"/>
-      <c r="AI4" s="59"/>
-      <c r="AJ4" s="68"/>
-      <c r="AK4" s="68"/>
-      <c r="AL4" s="68"/>
-      <c r="AM4" s="68"/>
-      <c r="AN4" s="68"/>
-      <c r="AO4" s="68"/>
-      <c r="AP4" s="68"/>
-      <c r="AQ4" s="68"/>
-      <c r="AR4" s="68"/>
-      <c r="AS4" s="68"/>
-    </row>
-    <row r="5" spans="1:45">
-      <c r="A5" s="74" t="s">
+      <c r="AA4" s="60"/>
+      <c r="AB4" s="61"/>
+      <c r="AC4" s="61"/>
+      <c r="AD4" s="72"/>
+      <c r="AE4" s="72"/>
+      <c r="AF4" s="58"/>
+      <c r="AG4" s="58"/>
+      <c r="AH4" s="58"/>
+      <c r="AI4" s="58"/>
+      <c r="AJ4" s="67"/>
+      <c r="AK4" s="67"/>
+      <c r="AL4" s="67"/>
+      <c r="AM4" s="67"/>
+      <c r="AN4" s="67"/>
+      <c r="AO4" s="67"/>
+      <c r="AP4" s="67"/>
+      <c r="AQ4" s="67"/>
+      <c r="AR4" s="67"/>
+      <c r="AS4" s="67"/>
+    </row>
+    <row r="5" spans="1:47">
+      <c r="A5" s="73" t="s">
         <v>1</v>
       </c>
-      <c r="B5" s="74" t="s">
+      <c r="B5" s="73" t="s">
         <v>0</v>
       </c>
-      <c r="C5" s="74" t="s">
+      <c r="C5" s="73" t="s">
         <v>882</v>
       </c>
-      <c r="D5" s="74" t="s">
+      <c r="D5" s="73" t="s">
         <v>43</v>
       </c>
-      <c r="E5" s="74" t="s">
+      <c r="E5" s="73" t="s">
         <v>911</v>
       </c>
-      <c r="F5" s="74" t="s">
+      <c r="F5" s="73" t="s">
         <v>2</v>
       </c>
-      <c r="G5" s="74" t="s">
+      <c r="G5" s="73" t="s">
         <v>815</v>
       </c>
-      <c r="H5" s="74" t="s">
+      <c r="H5" s="73" t="s">
         <v>816</v>
       </c>
-      <c r="I5" s="74" t="s">
+      <c r="I5" s="73" t="s">
         <v>942</v>
       </c>
-      <c r="J5" s="74" t="s">
+      <c r="J5" s="73" t="s">
         <v>943</v>
       </c>
-      <c r="K5" s="74" t="s">
+      <c r="K5" s="73" t="s">
         <v>889</v>
       </c>
-      <c r="L5" s="74" t="s">
+      <c r="L5" s="73" t="s">
         <v>890</v>
       </c>
-      <c r="M5" s="74" t="s">
+      <c r="M5" s="73" t="s">
         <v>896</v>
       </c>
-      <c r="N5" s="74" t="s">
+      <c r="N5" s="73" t="s">
         <v>891</v>
       </c>
-      <c r="O5" s="74" t="s">
+      <c r="O5" s="73" t="s">
         <v>892</v>
       </c>
-      <c r="P5" s="74" t="s">
+      <c r="P5" s="73" t="s">
         <v>44</v>
       </c>
-      <c r="Q5" s="74" t="s">
+      <c r="Q5" s="73" t="s">
         <v>45</v>
       </c>
-      <c r="R5" s="74" t="s">
+      <c r="R5" s="73" t="s">
         <v>893</v>
       </c>
-      <c r="S5" s="74" t="s">
+      <c r="S5" s="73" t="s">
         <v>46</v>
       </c>
-      <c r="T5" s="74" t="s">
+      <c r="T5" s="73" t="s">
         <v>894</v>
       </c>
-      <c r="U5" s="74" t="s">
+      <c r="U5" s="73" t="s">
         <v>47</v>
       </c>
-      <c r="V5" s="74" t="s">
+      <c r="V5" s="73" t="s">
         <v>895</v>
       </c>
-      <c r="W5" s="74" t="s">
+      <c r="W5" s="73" t="s">
         <v>877</v>
       </c>
-      <c r="X5" s="74" t="s">
+      <c r="X5" s="73" t="s">
         <v>907</v>
       </c>
-      <c r="Y5" s="74" t="s">
+      <c r="Y5" s="73" t="s">
         <v>918</v>
       </c>
-      <c r="Z5" s="75" t="s">
+      <c r="Z5" s="74" t="s">
         <v>872</v>
       </c>
-      <c r="AA5" s="75" t="s">
+      <c r="AA5" s="74" t="s">
         <v>873</v>
       </c>
       <c r="AB5" s="57" t="s">
@@ -4495,54 +4624,61 @@
       <c r="AE5" s="57" t="s">
         <v>922</v>
       </c>
-      <c r="AF5" s="51"/>
-      <c r="AG5" s="51"/>
-    </row>
-    <row r="6" spans="1:45">
-      <c r="A6" s="73" t="s">
+      <c r="AF5" s="51" t="s">
+        <v>1049</v>
+      </c>
+      <c r="AG5" s="83" t="s">
+        <v>1047</v>
+      </c>
+      <c r="AH5" s="83" t="s">
+        <v>1048</v>
+      </c>
+    </row>
+    <row r="6" spans="1:47">
+      <c r="A6" s="72" t="s">
         <v>946</v>
       </c>
-      <c r="B6" s="80" t="s">
+      <c r="B6" s="79" t="s">
         <v>934</v>
       </c>
-      <c r="C6" s="72" t="s">
+      <c r="C6" s="71" t="s">
         <v>880</v>
       </c>
-      <c r="D6" s="72" t="s">
+      <c r="D6" s="71" t="s">
         <v>909</v>
       </c>
-      <c r="E6" s="71" t="s">
+      <c r="E6" s="70" t="s">
         <v>909</v>
       </c>
-      <c r="F6" s="72" t="s">
+      <c r="F6" s="71" t="s">
         <v>36</v>
       </c>
-      <c r="G6" s="72" t="s">
+      <c r="G6" s="71" t="s">
         <v>807</v>
       </c>
-      <c r="H6" s="73" t="s">
+      <c r="H6" s="72" t="s">
         <v>871</v>
       </c>
-      <c r="I6" s="80" t="s">
-        <v>1028</v>
-      </c>
-      <c r="J6" s="80" t="s">
-        <v>1028</v>
+      <c r="I6" s="79" t="s">
+        <v>1050</v>
+      </c>
+      <c r="J6" s="79" t="s">
+        <v>1050</v>
       </c>
       <c r="K6" s="49" t="s">
-        <v>1017</v>
+        <v>1014</v>
       </c>
       <c r="L6" s="49" t="s">
-        <v>1018</v>
+        <v>1015</v>
       </c>
       <c r="M6" s="49" t="s">
         <v>944</v>
       </c>
       <c r="N6" s="49" t="s">
-        <v>1019</v>
+        <v>1016</v>
       </c>
       <c r="O6" s="49" t="s">
-        <v>1020</v>
+        <v>1017</v>
       </c>
       <c r="P6" s="50" t="s">
         <v>870</v>
@@ -4565,127 +4701,127 @@
       <c r="V6" s="52" t="s">
         <v>53</v>
       </c>
-      <c r="W6" s="61" t="s">
+      <c r="W6" s="60" t="s">
         <v>876</v>
       </c>
-      <c r="X6" s="62" t="s">
+      <c r="X6" s="61" t="s">
         <v>875</v>
       </c>
-      <c r="Y6" s="62" t="s">
+      <c r="Y6" s="61" t="s">
         <v>919</v>
       </c>
-      <c r="Z6" s="73" t="s">
+      <c r="Z6" s="72" t="s">
         <v>940</v>
       </c>
-      <c r="AA6" s="73" t="s">
+      <c r="AA6" s="72" t="s">
         <v>874</v>
       </c>
       <c r="AB6" s="48" t="s">
-        <v>1021</v>
+        <v>1018</v>
       </c>
       <c r="AC6" s="55" t="s">
         <v>941</v>
       </c>
-      <c r="AD6" t="s">
-        <v>1022</v>
+      <c r="AD6" s="69" t="s">
+        <v>1019</v>
       </c>
       <c r="AE6" s="51" t="s">
         <v>871</v>
       </c>
-      <c r="AF6" s="70" t="s">
+      <c r="AF6" s="69" t="s">
         <v>988</v>
       </c>
       <c r="AG6" s="51"/>
     </row>
-    <row r="7" spans="1:45" s="60" customFormat="1" ht="21.75" customHeight="1">
-      <c r="A7" s="74" t="s">
+    <row r="7" spans="1:47" s="59" customFormat="1" ht="21.75" customHeight="1">
+      <c r="A7" s="73" t="s">
         <v>1</v>
       </c>
-      <c r="B7" s="74" t="s">
+      <c r="B7" s="73" t="s">
         <v>0</v>
       </c>
-      <c r="C7" s="74" t="s">
+      <c r="C7" s="73" t="s">
         <v>882</v>
       </c>
-      <c r="D7" s="74" t="s">
+      <c r="D7" s="73" t="s">
         <v>43</v>
       </c>
-      <c r="E7" s="74" t="s">
+      <c r="E7" s="73" t="s">
         <v>911</v>
       </c>
-      <c r="F7" s="74" t="s">
+      <c r="F7" s="73" t="s">
         <v>2</v>
       </c>
-      <c r="G7" s="74" t="s">
+      <c r="G7" s="73" t="s">
         <v>815</v>
       </c>
-      <c r="H7" s="74" t="s">
+      <c r="H7" s="73" t="s">
         <v>816</v>
       </c>
-      <c r="I7" s="74" t="s">
+      <c r="I7" s="73" t="s">
         <v>924</v>
       </c>
-      <c r="J7" s="74" t="s">
+      <c r="J7" s="73" t="s">
         <v>930</v>
       </c>
-      <c r="K7" s="74" t="s">
+      <c r="K7" s="73" t="s">
         <v>931</v>
       </c>
-      <c r="L7" s="74" t="s">
+      <c r="L7" s="73" t="s">
         <v>932</v>
       </c>
-      <c r="M7" s="74" t="s">
+      <c r="M7" s="73" t="s">
         <v>933</v>
       </c>
-      <c r="N7" s="74" t="s">
+      <c r="N7" s="73" t="s">
         <v>889</v>
       </c>
-      <c r="O7" s="74" t="s">
+      <c r="O7" s="73" t="s">
         <v>890</v>
       </c>
-      <c r="P7" s="74" t="s">
+      <c r="P7" s="73" t="s">
         <v>896</v>
       </c>
-      <c r="Q7" s="74" t="s">
+      <c r="Q7" s="73" t="s">
         <v>891</v>
       </c>
-      <c r="R7" s="74" t="s">
+      <c r="R7" s="73" t="s">
         <v>892</v>
       </c>
-      <c r="S7" s="74" t="s">
+      <c r="S7" s="73" t="s">
         <v>44</v>
       </c>
-      <c r="T7" s="74" t="s">
+      <c r="T7" s="73" t="s">
         <v>45</v>
       </c>
-      <c r="U7" s="74" t="s">
+      <c r="U7" s="73" t="s">
         <v>893</v>
       </c>
-      <c r="V7" s="74" t="s">
+      <c r="V7" s="73" t="s">
         <v>46</v>
       </c>
-      <c r="W7" s="74" t="s">
+      <c r="W7" s="73" t="s">
         <v>894</v>
       </c>
-      <c r="X7" s="74" t="s">
+      <c r="X7" s="73" t="s">
         <v>47</v>
       </c>
-      <c r="Y7" s="74" t="s">
+      <c r="Y7" s="73" t="s">
         <v>895</v>
       </c>
-      <c r="Z7" s="74" t="s">
+      <c r="Z7" s="73" t="s">
         <v>877</v>
       </c>
-      <c r="AA7" s="74" t="s">
+      <c r="AA7" s="73" t="s">
         <v>907</v>
       </c>
-      <c r="AB7" s="74" t="s">
+      <c r="AB7" s="73" t="s">
         <v>918</v>
       </c>
-      <c r="AC7" s="75" t="s">
+      <c r="AC7" s="74" t="s">
         <v>872</v>
       </c>
-      <c r="AD7" s="75" t="s">
+      <c r="AD7" s="74" t="s">
         <v>873</v>
       </c>
       <c r="AE7" s="57" t="s">
@@ -4730,54 +4866,60 @@
       <c r="AR7" s="44" t="s">
         <v>905</v>
       </c>
-      <c r="AS7" s="74" t="s">
+      <c r="AS7" s="73" t="s">
         <v>923</v>
       </c>
-    </row>
-    <row r="8" spans="1:45" s="79" customFormat="1">
-      <c r="A8" s="73" t="s">
+      <c r="AT7" s="83" t="s">
+        <v>1047</v>
+      </c>
+      <c r="AU7" s="83" t="s">
+        <v>1048</v>
+      </c>
+    </row>
+    <row r="8" spans="1:47" s="78" customFormat="1">
+      <c r="A8" s="72" t="s">
         <v>947</v>
       </c>
-      <c r="B8" s="80" t="s">
+      <c r="B8" s="79" t="s">
         <v>934</v>
       </c>
-      <c r="C8" s="72" t="s">
+      <c r="C8" s="71" t="s">
         <v>880</v>
       </c>
-      <c r="D8" s="72" t="s">
+      <c r="D8" s="71" t="s">
         <v>39</v>
       </c>
-      <c r="E8" s="71" t="str">
+      <c r="E8" s="70" t="str">
         <f>VLOOKUP(D:D,MasterData!$1:$1048576,8,FALSE)</f>
         <v>CAS_SarathiCOV</v>
       </c>
-      <c r="F8" s="72" t="s">
+      <c r="F8" s="71" t="s">
         <v>36</v>
       </c>
-      <c r="G8" s="72" t="s">
+      <c r="G8" s="71" t="s">
         <v>807</v>
       </c>
-      <c r="H8" s="73" t="s">
+      <c r="H8" s="72" t="s">
         <v>871</v>
       </c>
-      <c r="I8" s="80" t="s">
+      <c r="I8" s="79" t="s">
         <v>927</v>
       </c>
-      <c r="J8" s="80" t="str">
+      <c r="J8" s="79" t="str">
         <f ca="1">INDIRECT(AF6)</f>
         <v>UP901/0000312/2021</v>
       </c>
-      <c r="K8" s="80" t="s">
+      <c r="K8" s="79" t="s">
         <v>871</v>
       </c>
-      <c r="L8" s="80" t="s">
+      <c r="L8" s="79" t="s">
         <v>871</v>
       </c>
-      <c r="M8" s="80" t="s">
+      <c r="M8" s="79" t="s">
         <v>871</v>
       </c>
       <c r="N8" s="49" t="s">
-        <v>1023</v>
+        <v>1020</v>
       </c>
       <c r="O8" s="49" t="s">
         <v>995</v>
@@ -4786,10 +4928,10 @@
         <v>50</v>
       </c>
       <c r="Q8" s="49" t="s">
-        <v>1024</v>
+        <v>1021</v>
       </c>
       <c r="R8" s="49" t="s">
-        <v>1025</v>
+        <v>1022</v>
       </c>
       <c r="S8" s="50" t="s">
         <v>870</v>
@@ -4812,111 +4954,111 @@
       <c r="Y8" s="52" t="s">
         <v>53</v>
       </c>
-      <c r="Z8" s="61" t="s">
+      <c r="Z8" s="60" t="s">
         <v>876</v>
       </c>
-      <c r="AA8" s="62" t="s">
+      <c r="AA8" s="61" t="s">
         <v>875</v>
       </c>
-      <c r="AB8" s="62" t="s">
+      <c r="AB8" s="61" t="s">
         <v>919</v>
       </c>
-      <c r="AC8" s="73" t="s">
+      <c r="AC8" s="72" t="s">
         <v>940</v>
       </c>
       <c r="AD8" s="55" t="s">
         <v>874</v>
       </c>
-      <c r="AE8" s="82" t="s">
-        <v>1026</v>
-      </c>
-      <c r="AF8" s="59" t="s">
+      <c r="AE8" s="81" t="s">
+        <v>1023</v>
+      </c>
+      <c r="AF8" s="58" t="s">
         <v>941</v>
       </c>
-      <c r="AG8" s="59" t="s">
+      <c r="AG8" s="58" t="s">
         <v>997</v>
       </c>
-      <c r="AH8" s="59" t="s">
+      <c r="AH8" s="58" t="s">
         <v>871</v>
       </c>
-      <c r="AI8" s="68" t="s">
+      <c r="AI8" s="67" t="s">
         <v>992</v>
       </c>
-      <c r="AJ8" s="68" t="s">
+      <c r="AJ8" s="67" t="s">
         <v>992</v>
       </c>
-      <c r="AK8" s="68" t="s">
+      <c r="AK8" s="67" t="s">
         <v>993</v>
       </c>
-      <c r="AL8" s="68" t="s">
+      <c r="AL8" s="67" t="s">
         <v>871</v>
       </c>
-      <c r="AM8" s="68" t="s">
+      <c r="AM8" s="67" t="s">
         <v>992</v>
       </c>
-      <c r="AN8" s="68" t="s">
+      <c r="AN8" s="67" t="s">
         <v>992</v>
       </c>
-      <c r="AO8" s="68" t="s">
+      <c r="AO8" s="67" t="s">
         <v>992</v>
       </c>
-      <c r="AP8" s="68" t="s">
+      <c r="AP8" s="67" t="s">
         <v>871</v>
       </c>
-      <c r="AQ8" s="68" t="s">
+      <c r="AQ8" s="67" t="s">
         <v>871</v>
       </c>
-      <c r="AR8" s="68" t="s">
+      <c r="AR8" s="67" t="s">
         <v>871</v>
       </c>
-      <c r="AS8" s="68" t="s">
+      <c r="AS8" s="67" t="s">
         <v>871</v>
       </c>
     </row>
-    <row r="9" spans="1:45">
-      <c r="A9" s="74" t="s">
+    <row r="9" spans="1:47">
+      <c r="A9" s="73" t="s">
         <v>1</v>
       </c>
-      <c r="B9" s="74" t="s">
+      <c r="B9" s="73" t="s">
         <v>0</v>
       </c>
-      <c r="C9" s="74" t="s">
+      <c r="C9" s="73" t="s">
         <v>882</v>
       </c>
-      <c r="D9" s="74" t="s">
+      <c r="D9" s="73" t="s">
         <v>43</v>
       </c>
-      <c r="E9" s="74" t="s">
+      <c r="E9" s="73" t="s">
         <v>911</v>
       </c>
-      <c r="F9" s="74" t="s">
+      <c r="F9" s="73" t="s">
         <v>2</v>
       </c>
-      <c r="G9" s="74" t="s">
+      <c r="G9" s="73" t="s">
         <v>815</v>
       </c>
-      <c r="H9" s="74" t="s">
+      <c r="H9" s="73" t="s">
         <v>816</v>
       </c>
-      <c r="I9" s="74" t="s">
+      <c r="I9" s="73" t="s">
         <v>936</v>
       </c>
-      <c r="J9" s="75" t="s">
+      <c r="J9" s="74" t="s">
         <v>872</v>
       </c>
-      <c r="K9" s="75" t="s">
+      <c r="K9" s="74" t="s">
         <v>873</v>
       </c>
-      <c r="L9" s="75" t="s">
+      <c r="L9" s="74" t="s">
         <v>948</v>
       </c>
-      <c r="M9" s="75" t="s">
+      <c r="M9" s="74" t="s">
         <v>949</v>
       </c>
-      <c r="N9" s="75" t="s">
+      <c r="N9" s="74" t="s">
         <v>950</v>
       </c>
-      <c r="O9" s="75" t="s">
+      <c r="O9" s="74" t="s">
         <v>951</v>
       </c>
       <c r="P9" s="53" t="s">
@@ -4991,117 +5133,129 @@
       <c r="AM9" s="54" t="s">
         <v>969</v>
       </c>
-      <c r="AN9" s="79" t="s">
+      <c r="AN9" s="78" t="s">
         <v>970</v>
       </c>
-      <c r="AO9" s="77" t="s">
+      <c r="AO9" s="76" t="s">
         <v>10</v>
       </c>
-      <c r="AP9" s="77" t="s">
+      <c r="AP9" s="76" t="s">
         <v>48</v>
       </c>
-      <c r="AQ9" s="76" t="s">
+      <c r="AQ9" s="75" t="s">
         <v>49</v>
       </c>
-    </row>
-    <row r="10" spans="1:45">
-      <c r="A10" s="71" t="s">
+      <c r="AR9" s="70" t="s">
+        <v>1049</v>
+      </c>
+      <c r="AS9" s="73" t="s">
+        <v>923</v>
+      </c>
+      <c r="AT9" s="83" t="s">
+        <v>1047</v>
+      </c>
+      <c r="AU9" s="83" t="s">
+        <v>1048</v>
+      </c>
+    </row>
+    <row r="10" spans="1:47">
+      <c r="A10" s="70" t="s">
         <v>979</v>
       </c>
-      <c r="B10" s="80" t="s">
+      <c r="B10" s="79" t="s">
         <v>934</v>
       </c>
-      <c r="C10" s="72" t="s">
+      <c r="C10" s="71" t="s">
         <v>880</v>
       </c>
-      <c r="D10" s="72" t="s">
+      <c r="D10" s="71" t="s">
         <v>909</v>
       </c>
-      <c r="E10" s="71" t="s">
+      <c r="E10" s="70" t="s">
         <v>909</v>
       </c>
-      <c r="F10" s="72" t="s">
+      <c r="F10" s="71" t="s">
         <v>36</v>
       </c>
-      <c r="G10" s="72" t="s">
+      <c r="G10" s="71" t="s">
         <v>807</v>
       </c>
-      <c r="H10" s="73" t="s">
+      <c r="H10" s="72" t="s">
         <v>871</v>
       </c>
-      <c r="I10" s="73" t="s">
+      <c r="I10" s="72" t="s">
         <v>871</v>
       </c>
-      <c r="J10" s="73" t="s">
+      <c r="J10" s="72" t="s">
         <v>940</v>
       </c>
-      <c r="K10" s="73" t="s">
+      <c r="K10" s="72" t="s">
         <v>874</v>
       </c>
-      <c r="L10" s="73" t="s">
+      <c r="L10" s="72" t="s">
         <v>971</v>
       </c>
-      <c r="M10" s="73" t="s">
+      <c r="M10" s="72" t="s">
         <v>972</v>
       </c>
-      <c r="N10" s="73" t="s">
+      <c r="N10" s="72" t="s">
         <v>871</v>
       </c>
-      <c r="O10" s="73" t="s">
+      <c r="O10" s="72" t="s">
         <v>871</v>
       </c>
-      <c r="P10" s="65" t="s">
+      <c r="P10" s="64" t="s">
         <v>973</v>
       </c>
-      <c r="Q10" s="66" t="s">
-        <v>1029</v>
-      </c>
-      <c r="R10" s="66" t="s">
-        <v>1029</v>
-      </c>
-      <c r="S10" s="83" t="s">
-        <v>1027</v>
-      </c>
-      <c r="T10" s="63" t="s">
+      <c r="Q10" s="65" t="s">
+        <v>1051</v>
+      </c>
+      <c r="R10" s="65" t="s">
+        <v>1051</v>
+      </c>
+      <c r="S10" s="82" t="s">
+        <v>1024</v>
+      </c>
+      <c r="T10" s="62" t="s">
         <v>998</v>
       </c>
-      <c r="U10" s="68" t="s">
+      <c r="U10" s="67" t="s">
         <v>999</v>
       </c>
-      <c r="V10" s="64" t="s">
+      <c r="V10" s="63" t="s">
         <v>944</v>
       </c>
-      <c r="W10" s="68" t="s">
+      <c r="W10" s="67" t="s">
         <v>1000</v>
       </c>
-      <c r="X10" s="63" t="s">
+      <c r="X10" s="62" t="s">
         <v>1001</v>
       </c>
-      <c r="Y10" s="64" t="s">
+      <c r="Y10" s="63" t="s">
         <v>870</v>
       </c>
-      <c r="Z10" s="64" t="s">
+      <c r="Z10" s="63" t="s">
         <v>974</v>
       </c>
-      <c r="AA10" s="63" t="s">
+      <c r="AA10" s="62" t="s">
         <v>51</v>
       </c>
-      <c r="AB10" s="67" t="s">
+      <c r="AB10" s="66" t="s">
         <v>937</v>
       </c>
-      <c r="AC10" s="64" t="s">
+      <c r="AC10" s="63" t="s">
         <v>975</v>
       </c>
-      <c r="AD10" s="64" t="s">
+      <c r="AD10" s="63" t="s">
         <v>976</v>
       </c>
-      <c r="AE10" s="64" t="s">
+      <c r="AE10" s="63" t="s">
         <v>977</v>
       </c>
-      <c r="AF10" s="64" t="s">
+      <c r="AF10" s="63" t="s">
         <v>973</v>
       </c>
-      <c r="AG10" s="64" t="s">
+      <c r="AG10" s="63" t="s">
         <v>978</v>
       </c>
       <c r="AH10" s="56" t="s">
@@ -5113,120 +5267,120 @@
       <c r="AJ10" s="56" t="s">
         <v>871</v>
       </c>
-      <c r="AK10" s="69" t="s">
+      <c r="AK10" s="68" t="s">
         <v>871</v>
       </c>
-      <c r="AL10" s="68" t="s">
+      <c r="AL10" s="67" t="s">
         <v>871</v>
       </c>
-      <c r="AM10" s="68" t="s">
+      <c r="AM10" s="67" t="s">
         <v>871</v>
       </c>
-      <c r="AN10" s="68" t="s">
+      <c r="AN10" s="67" t="s">
         <v>994</v>
       </c>
-      <c r="AO10" t="s">
+      <c r="AO10" s="69" t="s">
         <v>1002</v>
       </c>
-      <c r="AP10" s="63" t="s">
+      <c r="AP10" s="62" t="s">
         <v>1003</v>
       </c>
-      <c r="AQ10" s="71" t="s">
+      <c r="AQ10" s="70" t="s">
         <v>871</v>
       </c>
-      <c r="AR10" s="71" t="s">
+      <c r="AR10" s="70" t="s">
         <v>989</v>
       </c>
     </row>
-    <row r="11" spans="1:45" s="60" customFormat="1" ht="21.75" customHeight="1">
-      <c r="A11" s="74" t="s">
+    <row r="11" spans="1:47" s="59" customFormat="1" ht="21.75" customHeight="1">
+      <c r="A11" s="73" t="s">
         <v>1</v>
       </c>
-      <c r="B11" s="74" t="s">
+      <c r="B11" s="73" t="s">
         <v>0</v>
       </c>
-      <c r="C11" s="74" t="s">
+      <c r="C11" s="73" t="s">
         <v>882</v>
       </c>
-      <c r="D11" s="74" t="s">
+      <c r="D11" s="73" t="s">
         <v>43</v>
       </c>
-      <c r="E11" s="74" t="s">
+      <c r="E11" s="73" t="s">
         <v>911</v>
       </c>
-      <c r="F11" s="74" t="s">
+      <c r="F11" s="73" t="s">
         <v>2</v>
       </c>
-      <c r="G11" s="74" t="s">
+      <c r="G11" s="73" t="s">
         <v>815</v>
       </c>
-      <c r="H11" s="74" t="s">
+      <c r="H11" s="73" t="s">
         <v>816</v>
       </c>
-      <c r="I11" s="74" t="s">
+      <c r="I11" s="73" t="s">
         <v>924</v>
       </c>
-      <c r="J11" s="74" t="s">
+      <c r="J11" s="73" t="s">
         <v>930</v>
       </c>
-      <c r="K11" s="74" t="s">
+      <c r="K11" s="73" t="s">
         <v>931</v>
       </c>
-      <c r="L11" s="74" t="s">
+      <c r="L11" s="73" t="s">
         <v>932</v>
       </c>
-      <c r="M11" s="74" t="s">
+      <c r="M11" s="73" t="s">
         <v>933</v>
       </c>
-      <c r="N11" s="74" t="s">
+      <c r="N11" s="73" t="s">
         <v>889</v>
       </c>
-      <c r="O11" s="74" t="s">
+      <c r="O11" s="73" t="s">
         <v>890</v>
       </c>
-      <c r="P11" s="74" t="s">
+      <c r="P11" s="73" t="s">
         <v>896</v>
       </c>
-      <c r="Q11" s="74" t="s">
+      <c r="Q11" s="73" t="s">
         <v>891</v>
       </c>
-      <c r="R11" s="74" t="s">
+      <c r="R11" s="73" t="s">
         <v>892</v>
       </c>
-      <c r="S11" s="74" t="s">
+      <c r="S11" s="73" t="s">
         <v>44</v>
       </c>
-      <c r="T11" s="74" t="s">
+      <c r="T11" s="73" t="s">
         <v>45</v>
       </c>
-      <c r="U11" s="74" t="s">
+      <c r="U11" s="73" t="s">
         <v>893</v>
       </c>
-      <c r="V11" s="74" t="s">
+      <c r="V11" s="73" t="s">
         <v>46</v>
       </c>
-      <c r="W11" s="74" t="s">
+      <c r="W11" s="73" t="s">
         <v>894</v>
       </c>
-      <c r="X11" s="74" t="s">
+      <c r="X11" s="73" t="s">
         <v>47</v>
       </c>
-      <c r="Y11" s="74" t="s">
+      <c r="Y11" s="73" t="s">
         <v>895</v>
       </c>
-      <c r="Z11" s="74" t="s">
+      <c r="Z11" s="73" t="s">
         <v>877</v>
       </c>
-      <c r="AA11" s="74" t="s">
+      <c r="AA11" s="73" t="s">
         <v>907</v>
       </c>
-      <c r="AB11" s="74" t="s">
+      <c r="AB11" s="73" t="s">
         <v>918</v>
       </c>
-      <c r="AC11" s="75" t="s">
+      <c r="AC11" s="74" t="s">
         <v>872</v>
       </c>
-      <c r="AD11" s="75" t="s">
+      <c r="AD11" s="74" t="s">
         <v>873</v>
       </c>
       <c r="AE11" s="57" t="s">
@@ -5271,50 +5425,56 @@
       <c r="AR11" s="44" t="s">
         <v>905</v>
       </c>
-      <c r="AS11" s="74" t="s">
+      <c r="AS11" s="73" t="s">
         <v>923</v>
       </c>
-    </row>
-    <row r="12" spans="1:45" s="79" customFormat="1">
-      <c r="A12" s="73" t="s">
+      <c r="AT11" s="83" t="s">
+        <v>1047</v>
+      </c>
+      <c r="AU11" s="83" t="s">
+        <v>1048</v>
+      </c>
+    </row>
+    <row r="12" spans="1:47" s="78" customFormat="1">
+      <c r="A12" s="72" t="s">
         <v>980</v>
       </c>
-      <c r="B12" s="80" t="s">
+      <c r="B12" s="79" t="s">
         <v>934</v>
       </c>
-      <c r="C12" s="72" t="s">
+      <c r="C12" s="71" t="s">
         <v>880</v>
       </c>
-      <c r="D12" s="72" t="s">
+      <c r="D12" s="71" t="s">
         <v>39</v>
       </c>
-      <c r="E12" s="71" t="str">
+      <c r="E12" s="70" t="str">
         <f>VLOOKUP(D:D,MasterData!$1:$1048576,8,FALSE)</f>
         <v>CAS_SarathiCOV</v>
       </c>
-      <c r="F12" s="72" t="s">
+      <c r="F12" s="71" t="s">
         <v>36</v>
       </c>
-      <c r="G12" s="72" t="s">
+      <c r="G12" s="71" t="s">
         <v>807</v>
       </c>
-      <c r="H12" s="73" t="s">
+      <c r="H12" s="72" t="s">
         <v>871</v>
       </c>
-      <c r="I12" s="80" t="s">
+      <c r="I12" s="79" t="s">
         <v>928</v>
       </c>
-      <c r="J12" s="80" t="s">
+      <c r="J12" s="79" t="s">
         <v>871</v>
       </c>
-      <c r="K12" s="80" t="str">
+      <c r="K12" s="79" t="str">
         <f ca="1">INDIRECT(AR10)</f>
         <v>UP90120100000773</v>
       </c>
-      <c r="L12" s="80" t="s">
+      <c r="L12" s="79" t="s">
         <v>871</v>
       </c>
-      <c r="M12" s="80" t="s">
+      <c r="M12" s="79" t="s">
         <v>871</v>
       </c>
       <c r="N12" s="49" t="s">
@@ -5353,190 +5513,199 @@
       <c r="Y12" s="52" t="s">
         <v>53</v>
       </c>
-      <c r="Z12" s="61" t="s">
+      <c r="Z12" s="60" t="s">
         <v>876</v>
       </c>
-      <c r="AA12" s="62" t="s">
+      <c r="AA12" s="61" t="s">
         <v>875</v>
       </c>
-      <c r="AB12" s="62" t="s">
+      <c r="AB12" s="61" t="s">
         <v>919</v>
       </c>
-      <c r="AC12" s="73" t="s">
+      <c r="AC12" s="72" t="s">
         <v>940</v>
       </c>
       <c r="AD12" s="55" t="s">
         <v>874</v>
       </c>
-      <c r="AE12" s="59" t="s">
+      <c r="AE12" s="58" t="s">
         <v>1006</v>
       </c>
-      <c r="AF12" s="59" t="s">
+      <c r="AF12" s="58" t="s">
         <v>941</v>
       </c>
-      <c r="AG12" s="59" t="s">
+      <c r="AG12" s="58" t="s">
         <v>1007</v>
       </c>
-      <c r="AH12" s="59" t="s">
+      <c r="AH12" s="58" t="s">
         <v>871</v>
       </c>
-      <c r="AI12" s="68" t="s">
+      <c r="AI12" s="67" t="s">
         <v>992</v>
       </c>
-      <c r="AJ12" s="68" t="s">
+      <c r="AJ12" s="67" t="s">
         <v>992</v>
       </c>
-      <c r="AK12" s="68" t="s">
+      <c r="AK12" s="67" t="s">
         <v>993</v>
       </c>
-      <c r="AL12" s="68" t="s">
+      <c r="AL12" s="67" t="s">
         <v>871</v>
       </c>
-      <c r="AM12" s="68" t="s">
+      <c r="AM12" s="67" t="s">
         <v>992</v>
       </c>
-      <c r="AN12" s="68" t="s">
+      <c r="AN12" s="67" t="s">
         <v>992</v>
       </c>
-      <c r="AO12" s="68" t="s">
+      <c r="AO12" s="67" t="s">
         <v>992</v>
       </c>
-      <c r="AP12" s="68" t="s">
+      <c r="AP12" s="67" t="s">
         <v>871</v>
       </c>
-      <c r="AQ12" s="68" t="s">
+      <c r="AQ12" s="67" t="s">
         <v>871</v>
       </c>
-      <c r="AR12" s="68" t="s">
+      <c r="AR12" s="67" t="s">
         <v>871</v>
       </c>
-      <c r="AS12" s="68" t="s">
+      <c r="AS12" s="67" t="s">
         <v>871</v>
       </c>
     </row>
-    <row r="13" spans="1:45">
-      <c r="A13" s="74" t="s">
+    <row r="13" spans="1:47">
+      <c r="A13" s="73" t="s">
         <v>1</v>
       </c>
-      <c r="B13" s="74" t="s">
+      <c r="B13" s="73" t="s">
         <v>0</v>
       </c>
-      <c r="C13" s="74" t="s">
+      <c r="C13" s="73" t="s">
         <v>882</v>
       </c>
-      <c r="D13" s="74" t="s">
+      <c r="D13" s="73" t="s">
         <v>43</v>
       </c>
-      <c r="E13" s="74" t="s">
+      <c r="E13" s="73" t="s">
         <v>911</v>
       </c>
-      <c r="F13" s="74" t="s">
+      <c r="F13" s="73" t="s">
         <v>2</v>
       </c>
-      <c r="G13" s="74" t="s">
+      <c r="G13" s="73" t="s">
         <v>815</v>
       </c>
-      <c r="H13" s="74" t="s">
+      <c r="H13" s="73" t="s">
         <v>816</v>
       </c>
-      <c r="I13" s="74" t="s">
+      <c r="I13" s="73" t="s">
         <v>936</v>
       </c>
-      <c r="J13" s="75" t="s">
+      <c r="J13" s="74" t="s">
         <v>872</v>
       </c>
-      <c r="K13" s="75" t="s">
+      <c r="K13" s="74" t="s">
         <v>873</v>
       </c>
-      <c r="L13" s="77" t="s">
+      <c r="L13" s="76" t="s">
         <v>10</v>
       </c>
-      <c r="M13" s="76" t="s">
+      <c r="M13" s="75" t="s">
         <v>49</v>
       </c>
-      <c r="N13" s="76" t="s">
+      <c r="N13" s="75" t="s">
         <v>877</v>
       </c>
-      <c r="O13" s="78" t="s">
+      <c r="O13" s="77" t="s">
         <v>981</v>
       </c>
-      <c r="P13" s="78" t="s">
+      <c r="P13" s="77" t="s">
         <v>982</v>
       </c>
-      <c r="Q13" s="76" t="s">
+      <c r="Q13" s="75" t="s">
         <v>983</v>
       </c>
-      <c r="R13" s="79" t="s">
+      <c r="R13" s="78" t="s">
         <v>48</v>
       </c>
-      <c r="S13" s="79" t="s">
+      <c r="S13" s="78" t="s">
         <v>984</v>
+      </c>
+      <c r="T13" s="49" t="s">
+        <v>1049</v>
+      </c>
+      <c r="U13" s="83" t="s">
+        <v>1047</v>
+      </c>
+      <c r="V13" s="83" t="s">
+        <v>1048</v>
       </c>
       <c r="AD13" s="51"/>
       <c r="AE13" s="51"/>
       <c r="AF13" s="51"/>
       <c r="AG13" s="51"/>
     </row>
-    <row r="14" spans="1:45">
-      <c r="A14" s="58" t="s">
+    <row r="14" spans="1:47">
+      <c r="A14" s="72" t="s">
         <v>987</v>
       </c>
-      <c r="B14" s="80" t="s">
+      <c r="B14" s="79" t="s">
         <v>934</v>
       </c>
-      <c r="C14" s="72" t="s">
+      <c r="C14" s="71" t="s">
         <v>880</v>
       </c>
-      <c r="D14" s="72" t="s">
+      <c r="D14" s="71" t="s">
         <v>39</v>
       </c>
-      <c r="E14" s="71" t="s">
+      <c r="E14" s="70" t="s">
         <v>909</v>
       </c>
-      <c r="F14" s="72" t="s">
+      <c r="F14" s="71" t="s">
         <v>36</v>
       </c>
-      <c r="G14" s="72" t="s">
+      <c r="G14" s="71" t="s">
         <v>807</v>
       </c>
-      <c r="H14" s="73" t="s">
+      <c r="H14" s="72" t="s">
         <v>871</v>
       </c>
-      <c r="I14" s="73" t="s">
+      <c r="I14" s="72" t="s">
         <v>871</v>
       </c>
-      <c r="J14" s="73" t="s">
+      <c r="J14" s="72" t="s">
         <v>940</v>
       </c>
-      <c r="K14" s="73" t="s">
+      <c r="K14" s="72" t="s">
         <v>874</v>
       </c>
-      <c r="L14" s="71" t="str">
+      <c r="L14" s="70" t="str">
         <f ca="1">INDIRECT(T14)</f>
         <v>UP90120210000015</v>
       </c>
-      <c r="M14" s="68" t="s">
+      <c r="M14" s="67" t="s">
         <v>941</v>
       </c>
-      <c r="N14" s="68" t="s">
+      <c r="N14" s="67" t="s">
         <v>876</v>
       </c>
-      <c r="O14" s="72" t="s">
+      <c r="O14" s="71" t="s">
         <v>985</v>
       </c>
-      <c r="P14" s="71" t="s">
+      <c r="P14" s="70" t="s">
         <v>986</v>
       </c>
-      <c r="Q14" s="70" t="s">
+      <c r="Q14" s="69" t="s">
         <v>826</v>
       </c>
-      <c r="R14" s="68" t="s">
+      <c r="R14" s="67" t="s">
         <v>1008</v>
       </c>
-      <c r="S14" s="68" t="s">
+      <c r="S14" s="67" t="s">
         <v>994</v>
       </c>
-      <c r="T14" s="71" t="s">
+      <c r="T14" s="70" t="s">
         <v>990</v>
       </c>
       <c r="AD14" s="51"/>
@@ -5544,13 +5713,13 @@
       <c r="AF14" s="51"/>
       <c r="AG14" s="51"/>
     </row>
-    <row r="15" spans="1:45">
+    <row r="15" spans="1:47">
       <c r="AD15" s="51"/>
       <c r="AE15" s="51"/>
       <c r="AF15" s="51"/>
       <c r="AG15" s="51"/>
     </row>
-    <row r="16" spans="1:45">
+    <row r="16" spans="1:47">
       <c r="AD16" s="51"/>
       <c r="AE16" s="51"/>
       <c r="AF16" s="51"/>
@@ -5995,17 +6164,17 @@
       <c r="AG89" s="51"/>
     </row>
   </sheetData>
-  <conditionalFormatting sqref="AI2:AQ2 AJ3:AR4 AI8:AQ8 AH5:AP88 AI12:AQ12">
+  <conditionalFormatting sqref="AI2:AQ2 AJ3:AR4 AI8:AQ8 AI12:AQ12 AI5:AP88 AH6:AH88">
     <cfRule type="cellIs" dxfId="5" priority="46" operator="equal">
       <formula>"Success"</formula>
     </cfRule>
   </conditionalFormatting>
-  <conditionalFormatting sqref="AI2:AR2 AJ3:AS4 AI8:AR8 AH5:AQ88 AI12:AR12">
+  <conditionalFormatting sqref="AI2:AR2 AJ3:AS4 AI8:AR8 AI12:AR12 AI5:AQ88 AH6:AH88">
     <cfRule type="cellIs" dxfId="4" priority="45" operator="equal">
       <formula>"Fail"</formula>
     </cfRule>
   </conditionalFormatting>
-  <conditionalFormatting sqref="AE8:AH8 AE2:AH2 AF3:AI4 AD11:AG89 AD5 AD7:AD8 AE5:AG8 AE12:AH12">
+  <conditionalFormatting sqref="AE8:AH8 AE2:AH2 AF3:AI4 AD11:AG89 AD5 AD7:AD8 AE12:AH12 AE5:AF8 AG6:AG8">
     <cfRule type="notContainsBlanks" dxfId="3" priority="43">
       <formula>LEN(TRIM(AD2))&gt;0</formula>
     </cfRule>
@@ -6060,6 +6229,389 @@
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
+  <dimension ref="A1:L11"/>
+  <sheetViews>
+    <sheetView workbookViewId="0">
+      <selection activeCell="L5" sqref="L5"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr defaultRowHeight="15"/>
+  <cols>
+    <col min="1" max="1" width="6" style="69" bestFit="1" customWidth="1"/>
+    <col min="2" max="2" width="5.5703125" style="69" bestFit="1" customWidth="1"/>
+    <col min="3" max="3" width="6.42578125" style="69" bestFit="1" customWidth="1"/>
+    <col min="4" max="4" width="8.42578125" style="69" bestFit="1" customWidth="1"/>
+    <col min="5" max="5" width="8.85546875" style="69" customWidth="1"/>
+    <col min="6" max="6" width="46" style="69" bestFit="1" customWidth="1"/>
+    <col min="7" max="7" width="16.42578125" style="69" bestFit="1" customWidth="1"/>
+    <col min="8" max="8" width="13.85546875" style="69" bestFit="1" customWidth="1"/>
+    <col min="9" max="9" width="10.42578125" style="69" bestFit="1" customWidth="1"/>
+    <col min="10" max="10" width="19.42578125" style="69" bestFit="1" customWidth="1"/>
+    <col min="11" max="11" width="17.7109375" style="69" bestFit="1" customWidth="1"/>
+    <col min="12" max="12" width="20.140625" style="69" bestFit="1" customWidth="1"/>
+    <col min="13" max="16384" width="9.140625" style="69"/>
+  </cols>
+  <sheetData>
+    <row r="1" spans="1:12" ht="15" customHeight="1">
+      <c r="A1" s="87" t="s">
+        <v>1025</v>
+      </c>
+      <c r="B1" s="87"/>
+      <c r="C1" s="87"/>
+      <c r="D1" s="87"/>
+      <c r="E1" s="87"/>
+      <c r="F1" s="87"/>
+      <c r="G1" s="87"/>
+      <c r="H1" s="87"/>
+      <c r="I1" s="87"/>
+      <c r="J1" s="87"/>
+    </row>
+    <row r="2" spans="1:12" ht="15" customHeight="1">
+      <c r="A2" s="87"/>
+      <c r="B2" s="87"/>
+      <c r="C2" s="87"/>
+      <c r="D2" s="87"/>
+      <c r="E2" s="87"/>
+      <c r="F2" s="87"/>
+      <c r="G2" s="87"/>
+      <c r="H2" s="87"/>
+      <c r="I2" s="87"/>
+      <c r="J2" s="87"/>
+    </row>
+    <row r="3" spans="1:12" ht="15" customHeight="1">
+      <c r="A3" s="87"/>
+      <c r="B3" s="87"/>
+      <c r="C3" s="87"/>
+      <c r="D3" s="87"/>
+      <c r="E3" s="87"/>
+      <c r="F3" s="87"/>
+      <c r="G3" s="87"/>
+      <c r="H3" s="87"/>
+      <c r="I3" s="87"/>
+      <c r="J3" s="87"/>
+    </row>
+    <row r="4" spans="1:12" ht="15" customHeight="1">
+      <c r="A4" s="88"/>
+      <c r="B4" s="88"/>
+      <c r="C4" s="88"/>
+      <c r="D4" s="88"/>
+      <c r="E4" s="88"/>
+      <c r="F4" s="88"/>
+      <c r="G4" s="88"/>
+      <c r="H4" s="88"/>
+      <c r="I4" s="88"/>
+      <c r="J4" s="88"/>
+    </row>
+    <row r="5" spans="1:12">
+      <c r="A5" s="83" t="s">
+        <v>1044</v>
+      </c>
+      <c r="B5" s="83" t="s">
+        <v>2</v>
+      </c>
+      <c r="C5" s="83" t="s">
+        <v>936</v>
+      </c>
+      <c r="D5" s="83" t="s">
+        <v>1043</v>
+      </c>
+      <c r="E5" s="83" t="s">
+        <v>1026</v>
+      </c>
+      <c r="F5" s="83" t="s">
+        <v>1027</v>
+      </c>
+      <c r="G5" s="83" t="s">
+        <v>1045</v>
+      </c>
+      <c r="H5" s="83" t="s">
+        <v>48</v>
+      </c>
+      <c r="I5" s="83" t="s">
+        <v>1028</v>
+      </c>
+      <c r="J5" s="83" t="s">
+        <v>1036</v>
+      </c>
+      <c r="K5" s="83" t="s">
+        <v>922</v>
+      </c>
+      <c r="L5" s="83" t="s">
+        <v>1029</v>
+      </c>
+    </row>
+    <row r="6" spans="1:12">
+      <c r="A6" s="67" t="str">
+        <f>TestData!A2</f>
+        <v>TC01</v>
+      </c>
+      <c r="B6" s="67" t="str">
+        <f>TestData!F2</f>
+        <v>UP</v>
+      </c>
+      <c r="C6" s="67" t="str">
+        <f>TestData!G2</f>
+        <v>UP901</v>
+      </c>
+      <c r="D6" s="84" t="s">
+        <v>1032</v>
+      </c>
+      <c r="E6" s="84" t="s">
+        <v>1030</v>
+      </c>
+      <c r="F6" s="84" t="s">
+        <v>1037</v>
+      </c>
+      <c r="G6" s="67" t="str">
+        <f>TestData!V2</f>
+        <v>9949284540</v>
+      </c>
+      <c r="H6" s="67">
+        <f>TestData!AE2</f>
+        <v>0</v>
+      </c>
+      <c r="I6" s="67">
+        <f>TestData!AF2</f>
+        <v>0</v>
+      </c>
+      <c r="J6" s="67">
+        <f>TestData!AG2</f>
+        <v>0</v>
+      </c>
+      <c r="K6" s="85" t="str">
+        <f>TestData!AH2</f>
+        <v/>
+      </c>
+      <c r="L6" s="86"/>
+    </row>
+    <row r="7" spans="1:12">
+      <c r="A7" s="67" t="str">
+        <f>TestData!A4</f>
+        <v>TC02</v>
+      </c>
+      <c r="B7" s="67" t="str">
+        <f>TestData!F4</f>
+        <v>UP</v>
+      </c>
+      <c r="C7" s="67" t="str">
+        <f>TestData!G4</f>
+        <v>UP901</v>
+      </c>
+      <c r="D7" s="84" t="s">
+        <v>10</v>
+      </c>
+      <c r="E7" s="84" t="s">
+        <v>1031</v>
+      </c>
+      <c r="F7" s="84" t="s">
+        <v>1038</v>
+      </c>
+      <c r="G7" s="67" t="str">
+        <f>TestData!J4</f>
+        <v>9949284540</v>
+      </c>
+      <c r="H7" s="67">
+        <f>TestData!Q4</f>
+        <v>429921</v>
+      </c>
+      <c r="I7" s="67" t="str">
+        <f>TestData!O4</f>
+        <v>01-06-1984</v>
+      </c>
+      <c r="J7" s="67" t="s">
+        <v>1046</v>
+      </c>
+      <c r="K7" s="67" t="str">
+        <f>TestData!R4</f>
+        <v>UP90120210000015</v>
+      </c>
+      <c r="L7" s="67"/>
+    </row>
+    <row r="8" spans="1:12">
+      <c r="A8" s="67" t="str">
+        <f>TestData!A6</f>
+        <v>TC03</v>
+      </c>
+      <c r="B8" s="67" t="str">
+        <f>TestData!F6</f>
+        <v>UP</v>
+      </c>
+      <c r="C8" s="67" t="str">
+        <f>TestData!G6</f>
+        <v>UP901</v>
+      </c>
+      <c r="D8" s="84" t="s">
+        <v>1033</v>
+      </c>
+      <c r="E8" s="84" t="s">
+        <v>919</v>
+      </c>
+      <c r="F8" s="84" t="s">
+        <v>1039</v>
+      </c>
+      <c r="G8" s="67" t="str">
+        <f>TestData!S6</f>
+        <v>9949284540</v>
+      </c>
+      <c r="H8" s="67" t="str">
+        <f>TestData!AB6</f>
+        <v>430021</v>
+      </c>
+      <c r="I8" s="67" t="str">
+        <f>TestData!AC6</f>
+        <v>01-06-1984</v>
+      </c>
+      <c r="J8" s="67" t="str">
+        <f>TestData!AD6</f>
+        <v>UP901/0000312/2021</v>
+      </c>
+      <c r="K8" s="67" t="s">
+        <v>1046</v>
+      </c>
+      <c r="L8" s="67"/>
+    </row>
+    <row r="9" spans="1:12">
+      <c r="A9" s="67" t="str">
+        <f>TestData!A8</f>
+        <v>TC04</v>
+      </c>
+      <c r="B9" s="67" t="str">
+        <f>TestData!F8</f>
+        <v>UP</v>
+      </c>
+      <c r="C9" s="67" t="str">
+        <f>TestData!G8</f>
+        <v>UP901</v>
+      </c>
+      <c r="D9" s="84" t="s">
+        <v>1032</v>
+      </c>
+      <c r="E9" s="84" t="s">
+        <v>1034</v>
+      </c>
+      <c r="F9" s="84" t="s">
+        <v>1041</v>
+      </c>
+      <c r="G9" s="67" t="str">
+        <f>TestData!V8</f>
+        <v>9949284540</v>
+      </c>
+      <c r="H9" s="67" t="str">
+        <f>TestData!AE8</f>
+        <v>430121</v>
+      </c>
+      <c r="I9" s="67" t="str">
+        <f>TestData!AF8</f>
+        <v>01-06-1984</v>
+      </c>
+      <c r="J9" s="67" t="str">
+        <f>TestData!AG8</f>
+        <v>UP901/0001037/2021</v>
+      </c>
+      <c r="K9" s="67" t="str">
+        <f>TestData!AH8</f>
+        <v/>
+      </c>
+      <c r="L9" s="67"/>
+    </row>
+    <row r="10" spans="1:12">
+      <c r="A10" s="67" t="str">
+        <f>TestData!A10</f>
+        <v>TC05</v>
+      </c>
+      <c r="B10" s="67" t="str">
+        <f>TestData!F10</f>
+        <v>UP</v>
+      </c>
+      <c r="C10" s="67" t="str">
+        <f>TestData!G10</f>
+        <v>UP901</v>
+      </c>
+      <c r="D10" s="84" t="s">
+        <v>1033</v>
+      </c>
+      <c r="E10" s="84" t="s">
+        <v>10</v>
+      </c>
+      <c r="F10" s="84" t="s">
+        <v>1040</v>
+      </c>
+      <c r="G10" s="67" t="str">
+        <f>TestData!AB10</f>
+        <v>9949284540</v>
+      </c>
+      <c r="H10" s="67" t="str">
+        <f>TestData!AP10</f>
+        <v>429121</v>
+      </c>
+      <c r="I10" s="67" t="str">
+        <f>TestData!AQ10</f>
+        <v/>
+      </c>
+      <c r="J10" s="67" t="s">
+        <v>1046</v>
+      </c>
+      <c r="K10" s="67" t="str">
+        <f>TestData!AO10</f>
+        <v>UP90120100000773</v>
+      </c>
+      <c r="L10" s="67"/>
+    </row>
+    <row r="11" spans="1:12">
+      <c r="A11" s="67" t="str">
+        <f>TestData!A12</f>
+        <v>TC06</v>
+      </c>
+      <c r="B11" s="67" t="str">
+        <f>TestData!F12</f>
+        <v>UP</v>
+      </c>
+      <c r="C11" s="67" t="str">
+        <f>TestData!G12</f>
+        <v>UP901</v>
+      </c>
+      <c r="D11" s="84" t="s">
+        <v>1032</v>
+      </c>
+      <c r="E11" s="84" t="s">
+        <v>1035</v>
+      </c>
+      <c r="F11" s="84" t="s">
+        <v>1042</v>
+      </c>
+      <c r="G11" s="67" t="str">
+        <f>TestData!V12</f>
+        <v>9949284540</v>
+      </c>
+      <c r="H11" s="67" t="str">
+        <f>TestData!AE12</f>
+        <v>429221</v>
+      </c>
+      <c r="I11" s="67" t="str">
+        <f>TestData!AF12</f>
+        <v>01-06-1984</v>
+      </c>
+      <c r="J11" s="67" t="str">
+        <f>TestData!AG12</f>
+        <v>UP901/0001038/2021</v>
+      </c>
+      <c r="K11" s="67" t="str">
+        <f>TestData!AH12</f>
+        <v/>
+      </c>
+      <c r="L11" s="67"/>
+    </row>
+  </sheetData>
+  <mergeCells count="1">
+    <mergeCell ref="A1:J4"/>
+  </mergeCells>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+  <pageSetup orientation="portrait" horizontalDpi="300" verticalDpi="300" r:id="rId1"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
   <dimension ref="A1:K54"/>
   <sheetViews>
     <sheetView topLeftCell="D1" zoomScale="120" zoomScaleNormal="120" workbookViewId="0">
@@ -6682,7 +7234,7 @@
 </worksheet>
 </file>
 
-<file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=xl/worksheets/sheet4.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
   <dimension ref="A1:AL155"/>
   <sheetViews>

--- a/DataFiles/TestGeneric.xlsx
+++ b/DataFiles/TestGeneric.xlsx
@@ -4,7 +4,7 @@
   <fileVersion appName="xl" lastEdited="4" lowestEdited="4" rupBuild="4505"/>
   <workbookPr filterPrivacy="1" defaultThemeVersion="124226"/>
   <bookViews>
-    <workbookView xWindow="240" yWindow="105" windowWidth="14805" windowHeight="8010"/>
+    <workbookView xWindow="240" yWindow="105" windowWidth="14805" windowHeight="8010" activeTab="1"/>
   </bookViews>
   <sheets>
     <sheet name="TestData" sheetId="1" r:id="rId1"/>
@@ -3239,10 +3239,10 @@
     <t>Reference</t>
   </si>
   <si>
-    <t>318</t>
-  </si>
-  <si>
-    <t>778</t>
+    <t>319</t>
+  </si>
+  <si>
+    <t>779</t>
   </si>
 </sst>
 </file>
@@ -4038,8 +4038,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
   <dimension ref="A1:AU89"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="L1" workbookViewId="0">
-      <selection activeCell="S10" sqref="S10"/>
+    <sheetView topLeftCell="O1" workbookViewId="0">
+      <selection activeCell="R10" sqref="R10"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15"/>
@@ -6231,8 +6231,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
   <dimension ref="A1:L11"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection activeCell="L5" sqref="L5"/>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection sqref="A1:L4"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15"/>
@@ -6265,6 +6265,8 @@
       <c r="H1" s="87"/>
       <c r="I1" s="87"/>
       <c r="J1" s="87"/>
+      <c r="K1" s="87"/>
+      <c r="L1" s="87"/>
     </row>
     <row r="2" spans="1:12" ht="15" customHeight="1">
       <c r="A2" s="87"/>
@@ -6277,6 +6279,8 @@
       <c r="H2" s="87"/>
       <c r="I2" s="87"/>
       <c r="J2" s="87"/>
+      <c r="K2" s="87"/>
+      <c r="L2" s="87"/>
     </row>
     <row r="3" spans="1:12" ht="15" customHeight="1">
       <c r="A3" s="87"/>
@@ -6289,6 +6293,8 @@
       <c r="H3" s="87"/>
       <c r="I3" s="87"/>
       <c r="J3" s="87"/>
+      <c r="K3" s="87"/>
+      <c r="L3" s="87"/>
     </row>
     <row r="4" spans="1:12" ht="15" customHeight="1">
       <c r="A4" s="88"/>
@@ -6301,6 +6307,8 @@
       <c r="H4" s="88"/>
       <c r="I4" s="88"/>
       <c r="J4" s="88"/>
+      <c r="K4" s="88"/>
+      <c r="L4" s="88"/>
     </row>
     <row r="5" spans="1:12">
       <c r="A5" s="83" t="s">
@@ -6603,7 +6611,7 @@
     </row>
   </sheetData>
   <mergeCells count="1">
-    <mergeCell ref="A1:J4"/>
+    <mergeCell ref="A1:L4"/>
   </mergeCells>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <pageSetup orientation="portrait" horizontalDpi="300" verticalDpi="300" r:id="rId1"/>

--- a/DataFiles/TestGeneric.xlsx
+++ b/DataFiles/TestGeneric.xlsx
@@ -4,7 +4,7 @@
   <fileVersion appName="xl" lastEdited="4" lowestEdited="4" rupBuild="4505"/>
   <workbookPr filterPrivacy="1" defaultThemeVersion="124226"/>
   <bookViews>
-    <workbookView xWindow="240" yWindow="105" windowWidth="14805" windowHeight="8010" activeTab="1"/>
+    <workbookView xWindow="240" yWindow="105" windowWidth="14805" windowHeight="8010"/>
   </bookViews>
   <sheets>
     <sheet name="TestData" sheetId="1" r:id="rId1"/>
@@ -87,7 +87,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1487" uniqueCount="1052">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1485" uniqueCount="1058">
   <si>
     <t>Iteration</t>
   </si>
@@ -3065,12 +3065,6 @@
     <t>AG2</t>
   </si>
   <si>
-    <t>Success</t>
-  </si>
-  <si>
-    <t>Fail</t>
-  </si>
-  <si>
     <t>Pass</t>
   </si>
   <si>
@@ -3116,18 +3110,6 @@
     <t>429321</t>
   </si>
   <si>
-    <t>Kamla</t>
-  </si>
-  <si>
-    <t>Kapoor</t>
-  </si>
-  <si>
-    <t>Opaline</t>
-  </si>
-  <si>
-    <t>Trivedi</t>
-  </si>
-  <si>
     <t>UP90120210000015</t>
   </si>
   <si>
@@ -3243,6 +3225,42 @@
   </si>
   <si>
     <t>779</t>
+  </si>
+  <si>
+    <t>Ref1</t>
+  </si>
+  <si>
+    <t>Ref2</t>
+  </si>
+  <si>
+    <t>Ref3</t>
+  </si>
+  <si>
+    <t>Ref4</t>
+  </si>
+  <si>
+    <t>AE2</t>
+  </si>
+  <si>
+    <t>AF2</t>
+  </si>
+  <si>
+    <t>AH2</t>
+  </si>
+  <si>
+    <t>Anuraag</t>
+  </si>
+  <si>
+    <t>Bhattacharya</t>
+  </si>
+  <si>
+    <t>Devesh</t>
+  </si>
+  <si>
+    <t>Patel</t>
+  </si>
+  <si>
+    <t>440421</t>
   </si>
 </sst>
 </file>
@@ -3474,7 +3492,7 @@
     <xf numFmtId="0" fontId="3" fillId="0" borderId="0"/>
     <xf numFmtId="0" fontId="3" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="89">
+  <cellXfs count="90">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
@@ -3647,6 +3665,9 @@
     </xf>
     <xf numFmtId="0" fontId="7" fillId="11" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="2" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
     </xf>
   </cellXfs>
   <cellStyles count="39">
@@ -4036,10 +4057,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <dimension ref="A1:AU89"/>
+  <dimension ref="A1:AY89"/>
   <sheetViews>
-    <sheetView topLeftCell="O1" workbookViewId="0">
-      <selection activeCell="R10" sqref="R10"/>
+    <sheetView tabSelected="1" topLeftCell="J1" workbookViewId="0">
+      <selection activeCell="M18" sqref="M18"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15"/>
@@ -4094,7 +4115,7 @@
     <col min="48" max="16384" width="9.140625" style="70" collapsed="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:47" s="59" customFormat="1" ht="21.75" customHeight="1">
+    <row r="1" spans="1:51" s="59" customFormat="1" ht="21.75" customHeight="1">
       <c r="A1" s="73" t="s">
         <v>1</v>
       </c>
@@ -4231,13 +4252,25 @@
         <v>923</v>
       </c>
       <c r="AT1" s="83" t="s">
+        <v>1041</v>
+      </c>
+      <c r="AU1" s="83" t="s">
+        <v>1042</v>
+      </c>
+      <c r="AV1" s="59" t="s">
+        <v>1046</v>
+      </c>
+      <c r="AW1" s="59" t="s">
         <v>1047</v>
       </c>
-      <c r="AU1" s="83" t="s">
+      <c r="AX1" s="59" t="s">
         <v>1048</v>
       </c>
-    </row>
-    <row r="2" spans="1:47" s="78" customFormat="1">
+      <c r="AY1" s="59" t="s">
+        <v>1049</v>
+      </c>
+    </row>
+    <row r="2" spans="1:51" s="78" customFormat="1">
       <c r="A2" s="72" t="s">
         <v>938</v>
       </c>
@@ -4279,19 +4312,19 @@
         <v>871</v>
       </c>
       <c r="N2" s="49" t="s">
-        <v>1009</v>
+        <v>1053</v>
       </c>
       <c r="O2" s="49" t="s">
-        <v>1010</v>
+        <v>1054</v>
       </c>
       <c r="P2" s="49" t="s">
         <v>50</v>
       </c>
       <c r="Q2" s="49" t="s">
-        <v>1011</v>
+        <v>1055</v>
       </c>
       <c r="R2" s="49" t="s">
-        <v>1012</v>
+        <v>1056</v>
       </c>
       <c r="S2" s="50" t="s">
         <v>870</v>
@@ -4329,8 +4362,12 @@
       <c r="AD2" s="72" t="s">
         <v>874</v>
       </c>
-      <c r="AE2" s="58"/>
-      <c r="AF2" s="58"/>
+      <c r="AE2" s="58" t="s">
+        <v>1057</v>
+      </c>
+      <c r="AF2" s="58" t="s">
+        <v>941</v>
+      </c>
       <c r="AG2" s="58"/>
       <c r="AH2" s="58" t="s">
         <v>871</v>
@@ -4338,10 +4375,18 @@
       <c r="AI2" s="67"/>
       <c r="AJ2" s="67"/>
       <c r="AK2" s="67"/>
-      <c r="AL2" s="67"/>
-      <c r="AM2" s="67"/>
-      <c r="AN2" s="67"/>
-      <c r="AO2" s="67"/>
+      <c r="AL2" s="67" t="s">
+        <v>871</v>
+      </c>
+      <c r="AM2" s="67" t="s">
+        <v>871</v>
+      </c>
+      <c r="AN2" s="67" t="s">
+        <v>871</v>
+      </c>
+      <c r="AO2" s="67" t="s">
+        <v>871</v>
+      </c>
       <c r="AP2" s="67" t="s">
         <v>871</v>
       </c>
@@ -4354,8 +4399,26 @@
       <c r="AS2" s="67" t="s">
         <v>871</v>
       </c>
-    </row>
-    <row r="3" spans="1:47" s="78" customFormat="1">
+      <c r="AT2" t="s">
+        <v>871</v>
+      </c>
+      <c r="AU2" t="s">
+        <v>871</v>
+      </c>
+      <c r="AV2" s="56" t="s">
+        <v>1050</v>
+      </c>
+      <c r="AW2" s="56" t="s">
+        <v>1051</v>
+      </c>
+      <c r="AX2" s="56" t="s">
+        <v>991</v>
+      </c>
+      <c r="AY2" s="56" t="s">
+        <v>1052</v>
+      </c>
+    </row>
+    <row r="3" spans="1:51" s="78" customFormat="1">
       <c r="A3" s="73" t="s">
         <v>1</v>
       </c>
@@ -4411,13 +4474,13 @@
         <v>922</v>
       </c>
       <c r="S3" s="49" t="s">
-        <v>1049</v>
+        <v>1043</v>
       </c>
       <c r="T3" s="83" t="s">
-        <v>1047</v>
+        <v>1041</v>
       </c>
       <c r="U3" s="83" t="s">
-        <v>1048</v>
+        <v>1042</v>
       </c>
       <c r="V3" s="50"/>
       <c r="W3" s="50"/>
@@ -4444,7 +4507,7 @@
       <c r="AR3" s="67"/>
       <c r="AS3" s="67"/>
     </row>
-    <row r="4" spans="1:47" s="78" customFormat="1">
+    <row r="4" spans="1:51" s="78" customFormat="1">
       <c r="A4" s="72" t="s">
         <v>939</v>
       </c>
@@ -4498,7 +4561,7 @@
         <v>429921</v>
       </c>
       <c r="R4" s="56" t="s">
-        <v>1013</v>
+        <v>1007</v>
       </c>
       <c r="S4" s="49" t="s">
         <v>991</v>
@@ -4530,7 +4593,7 @@
       <c r="AR4" s="67"/>
       <c r="AS4" s="67"/>
     </row>
-    <row r="5" spans="1:47">
+    <row r="5" spans="1:51">
       <c r="A5" s="73" t="s">
         <v>1</v>
       </c>
@@ -4625,16 +4688,16 @@
         <v>922</v>
       </c>
       <c r="AF5" s="51" t="s">
-        <v>1049</v>
+        <v>1043</v>
       </c>
       <c r="AG5" s="83" t="s">
-        <v>1047</v>
+        <v>1041</v>
       </c>
       <c r="AH5" s="83" t="s">
-        <v>1048</v>
-      </c>
-    </row>
-    <row r="6" spans="1:47">
+        <v>1042</v>
+      </c>
+    </row>
+    <row r="6" spans="1:51">
       <c r="A6" s="72" t="s">
         <v>946</v>
       </c>
@@ -4660,25 +4723,25 @@
         <v>871</v>
       </c>
       <c r="I6" s="79" t="s">
-        <v>1050</v>
+        <v>1044</v>
       </c>
       <c r="J6" s="79" t="s">
-        <v>1050</v>
+        <v>1044</v>
       </c>
       <c r="K6" s="49" t="s">
-        <v>1014</v>
+        <v>1008</v>
       </c>
       <c r="L6" s="49" t="s">
-        <v>1015</v>
+        <v>1009</v>
       </c>
       <c r="M6" s="49" t="s">
         <v>944</v>
       </c>
       <c r="N6" s="49" t="s">
-        <v>1016</v>
+        <v>1010</v>
       </c>
       <c r="O6" s="49" t="s">
-        <v>1017</v>
+        <v>1011</v>
       </c>
       <c r="P6" s="50" t="s">
         <v>870</v>
@@ -4717,13 +4780,13 @@
         <v>874</v>
       </c>
       <c r="AB6" s="48" t="s">
-        <v>1018</v>
+        <v>1012</v>
       </c>
       <c r="AC6" s="55" t="s">
         <v>941</v>
       </c>
       <c r="AD6" s="69" t="s">
-        <v>1019</v>
+        <v>1013</v>
       </c>
       <c r="AE6" s="51" t="s">
         <v>871</v>
@@ -4733,7 +4796,7 @@
       </c>
       <c r="AG6" s="51"/>
     </row>
-    <row r="7" spans="1:47" s="59" customFormat="1" ht="21.75" customHeight="1">
+    <row r="7" spans="1:51" s="59" customFormat="1" ht="21.75" customHeight="1">
       <c r="A7" s="73" t="s">
         <v>1</v>
       </c>
@@ -4870,13 +4933,13 @@
         <v>923</v>
       </c>
       <c r="AT7" s="83" t="s">
-        <v>1047</v>
+        <v>1041</v>
       </c>
       <c r="AU7" s="83" t="s">
-        <v>1048</v>
-      </c>
-    </row>
-    <row r="8" spans="1:47" s="78" customFormat="1">
+        <v>1042</v>
+      </c>
+    </row>
+    <row r="8" spans="1:51" s="78" customFormat="1">
       <c r="A8" s="72" t="s">
         <v>947</v>
       </c>
@@ -4919,19 +4982,19 @@
         <v>871</v>
       </c>
       <c r="N8" s="49" t="s">
-        <v>1020</v>
+        <v>1014</v>
       </c>
       <c r="O8" s="49" t="s">
-        <v>995</v>
+        <v>993</v>
       </c>
       <c r="P8" s="49" t="s">
         <v>50</v>
       </c>
       <c r="Q8" s="49" t="s">
-        <v>1021</v>
+        <v>1015</v>
       </c>
       <c r="R8" s="49" t="s">
-        <v>1022</v>
+        <v>1016</v>
       </c>
       <c r="S8" s="50" t="s">
         <v>870</v>
@@ -4970,44 +5033,26 @@
         <v>874</v>
       </c>
       <c r="AE8" s="81" t="s">
-        <v>1023</v>
+        <v>1017</v>
       </c>
       <c r="AF8" s="58" t="s">
         <v>941</v>
       </c>
       <c r="AG8" s="58" t="s">
-        <v>997</v>
+        <v>995</v>
       </c>
       <c r="AH8" s="58" t="s">
         <v>871</v>
       </c>
-      <c r="AI8" s="67" t="s">
-        <v>992</v>
-      </c>
-      <c r="AJ8" s="67" t="s">
-        <v>992</v>
-      </c>
-      <c r="AK8" s="67" t="s">
-        <v>993</v>
-      </c>
-      <c r="AL8" s="67" t="s">
-        <v>871</v>
-      </c>
-      <c r="AM8" s="67" t="s">
-        <v>992</v>
-      </c>
-      <c r="AN8" s="67" t="s">
-        <v>992</v>
-      </c>
-      <c r="AO8" s="67" t="s">
-        <v>992</v>
-      </c>
-      <c r="AP8" s="67" t="s">
-        <v>871</v>
-      </c>
-      <c r="AQ8" s="67" t="s">
-        <v>871</v>
-      </c>
+      <c r="AI8" s="67"/>
+      <c r="AJ8" s="67"/>
+      <c r="AK8" s="67"/>
+      <c r="AL8" s="67"/>
+      <c r="AM8" s="67"/>
+      <c r="AN8" s="67"/>
+      <c r="AO8" s="67"/>
+      <c r="AP8" s="67"/>
+      <c r="AQ8" s="67"/>
       <c r="AR8" s="67" t="s">
         <v>871</v>
       </c>
@@ -5015,7 +5060,7 @@
         <v>871</v>
       </c>
     </row>
-    <row r="9" spans="1:47">
+    <row r="9" spans="1:51">
       <c r="A9" s="73" t="s">
         <v>1</v>
       </c>
@@ -5049,16 +5094,16 @@
       <c r="K9" s="74" t="s">
         <v>873</v>
       </c>
-      <c r="L9" s="74" t="s">
+      <c r="L9" s="89" t="s">
         <v>948</v>
       </c>
-      <c r="M9" s="74" t="s">
+      <c r="M9" s="89" t="s">
         <v>949</v>
       </c>
-      <c r="N9" s="74" t="s">
+      <c r="N9" s="89" t="s">
         <v>950</v>
       </c>
-      <c r="O9" s="74" t="s">
+      <c r="O9" s="89" t="s">
         <v>951</v>
       </c>
       <c r="P9" s="53" t="s">
@@ -5146,19 +5191,19 @@
         <v>49</v>
       </c>
       <c r="AR9" s="70" t="s">
-        <v>1049</v>
+        <v>1043</v>
       </c>
       <c r="AS9" s="73" t="s">
         <v>923</v>
       </c>
       <c r="AT9" s="83" t="s">
-        <v>1047</v>
+        <v>1041</v>
       </c>
       <c r="AU9" s="83" t="s">
-        <v>1048</v>
-      </c>
-    </row>
-    <row r="10" spans="1:47">
+        <v>1042</v>
+      </c>
+    </row>
+    <row r="10" spans="1:51">
       <c r="A10" s="70" t="s">
         <v>979</v>
       </c>
@@ -5208,28 +5253,28 @@
         <v>973</v>
       </c>
       <c r="Q10" s="65" t="s">
-        <v>1051</v>
+        <v>1045</v>
       </c>
       <c r="R10" s="65" t="s">
-        <v>1051</v>
+        <v>1045</v>
       </c>
       <c r="S10" s="82" t="s">
-        <v>1024</v>
+        <v>1018</v>
       </c>
       <c r="T10" s="62" t="s">
-        <v>998</v>
+        <v>996</v>
       </c>
       <c r="U10" s="67" t="s">
-        <v>999</v>
+        <v>997</v>
       </c>
       <c r="V10" s="63" t="s">
         <v>944</v>
       </c>
       <c r="W10" s="67" t="s">
-        <v>1000</v>
+        <v>998</v>
       </c>
       <c r="X10" s="62" t="s">
-        <v>1001</v>
+        <v>999</v>
       </c>
       <c r="Y10" s="63" t="s">
         <v>870</v>
@@ -5277,13 +5322,13 @@
         <v>871</v>
       </c>
       <c r="AN10" s="67" t="s">
-        <v>994</v>
+        <v>992</v>
       </c>
       <c r="AO10" s="69" t="s">
-        <v>1002</v>
+        <v>1000</v>
       </c>
       <c r="AP10" s="62" t="s">
-        <v>1003</v>
+        <v>1001</v>
       </c>
       <c r="AQ10" s="70" t="s">
         <v>871</v>
@@ -5292,7 +5337,7 @@
         <v>989</v>
       </c>
     </row>
-    <row r="11" spans="1:47" s="59" customFormat="1" ht="21.75" customHeight="1">
+    <row r="11" spans="1:51" s="59" customFormat="1" ht="21.75" customHeight="1">
       <c r="A11" s="73" t="s">
         <v>1</v>
       </c>
@@ -5429,13 +5474,13 @@
         <v>923</v>
       </c>
       <c r="AT11" s="83" t="s">
-        <v>1047</v>
+        <v>1041</v>
       </c>
       <c r="AU11" s="83" t="s">
-        <v>1048</v>
-      </c>
-    </row>
-    <row r="12" spans="1:47" s="78" customFormat="1">
+        <v>1042</v>
+      </c>
+    </row>
+    <row r="12" spans="1:51" s="78" customFormat="1">
       <c r="A12" s="72" t="s">
         <v>980</v>
       </c>
@@ -5478,19 +5523,19 @@
         <v>871</v>
       </c>
       <c r="N12" s="49" t="s">
-        <v>1004</v>
+        <v>1002</v>
       </c>
       <c r="O12" s="49" t="s">
-        <v>1001</v>
+        <v>999</v>
       </c>
       <c r="P12" s="49" t="s">
         <v>50</v>
       </c>
       <c r="Q12" s="49" t="s">
-        <v>1005</v>
+        <v>1003</v>
       </c>
       <c r="R12" s="49" t="s">
-        <v>996</v>
+        <v>994</v>
       </c>
       <c r="S12" s="50" t="s">
         <v>870</v>
@@ -5529,44 +5574,26 @@
         <v>874</v>
       </c>
       <c r="AE12" s="58" t="s">
-        <v>1006</v>
+        <v>1004</v>
       </c>
       <c r="AF12" s="58" t="s">
         <v>941</v>
       </c>
       <c r="AG12" s="58" t="s">
-        <v>1007</v>
+        <v>1005</v>
       </c>
       <c r="AH12" s="58" t="s">
         <v>871</v>
       </c>
-      <c r="AI12" s="67" t="s">
-        <v>992</v>
-      </c>
-      <c r="AJ12" s="67" t="s">
-        <v>992</v>
-      </c>
-      <c r="AK12" s="67" t="s">
-        <v>993</v>
-      </c>
-      <c r="AL12" s="67" t="s">
-        <v>871</v>
-      </c>
-      <c r="AM12" s="67" t="s">
-        <v>992</v>
-      </c>
-      <c r="AN12" s="67" t="s">
-        <v>992</v>
-      </c>
-      <c r="AO12" s="67" t="s">
-        <v>992</v>
-      </c>
-      <c r="AP12" s="67" t="s">
-        <v>871</v>
-      </c>
-      <c r="AQ12" s="67" t="s">
-        <v>871</v>
-      </c>
+      <c r="AI12" s="67"/>
+      <c r="AJ12" s="67"/>
+      <c r="AK12" s="67"/>
+      <c r="AL12" s="67"/>
+      <c r="AM12" s="67"/>
+      <c r="AN12" s="67"/>
+      <c r="AO12" s="67"/>
+      <c r="AP12" s="67"/>
+      <c r="AQ12" s="67"/>
       <c r="AR12" s="67" t="s">
         <v>871</v>
       </c>
@@ -5574,7 +5601,7 @@
         <v>871</v>
       </c>
     </row>
-    <row r="13" spans="1:47">
+    <row r="13" spans="1:51">
       <c r="A13" s="73" t="s">
         <v>1</v>
       </c>
@@ -5633,20 +5660,20 @@
         <v>984</v>
       </c>
       <c r="T13" s="49" t="s">
-        <v>1049</v>
+        <v>1043</v>
       </c>
       <c r="U13" s="83" t="s">
-        <v>1047</v>
+        <v>1041</v>
       </c>
       <c r="V13" s="83" t="s">
-        <v>1048</v>
+        <v>1042</v>
       </c>
       <c r="AD13" s="51"/>
       <c r="AE13" s="51"/>
       <c r="AF13" s="51"/>
       <c r="AG13" s="51"/>
     </row>
-    <row r="14" spans="1:47">
+    <row r="14" spans="1:51">
       <c r="A14" s="72" t="s">
         <v>987</v>
       </c>
@@ -5700,10 +5727,10 @@
         <v>826</v>
       </c>
       <c r="R14" s="67" t="s">
-        <v>1008</v>
+        <v>1006</v>
       </c>
       <c r="S14" s="67" t="s">
-        <v>994</v>
+        <v>992</v>
       </c>
       <c r="T14" s="70" t="s">
         <v>990</v>
@@ -5713,13 +5740,13 @@
       <c r="AF14" s="51"/>
       <c r="AG14" s="51"/>
     </row>
-    <row r="15" spans="1:47">
+    <row r="15" spans="1:51">
       <c r="AD15" s="51"/>
       <c r="AE15" s="51"/>
       <c r="AF15" s="51"/>
       <c r="AG15" s="51"/>
     </row>
-    <row r="16" spans="1:47">
+    <row r="16" spans="1:51">
       <c r="AD16" s="51"/>
       <c r="AE16" s="51"/>
       <c r="AF16" s="51"/>
@@ -6174,7 +6201,7 @@
       <formula>"Fail"</formula>
     </cfRule>
   </conditionalFormatting>
-  <conditionalFormatting sqref="AE8:AH8 AE2:AH2 AF3:AI4 AD11:AG89 AD5 AD7:AD8 AE12:AH12 AE5:AF8 AG6:AG8">
+  <conditionalFormatting sqref="AF3:AI4 AE6 AE12:AH12 AE2:AH2 AG6 AD12:AG89 AD8:AH8 AF5:AF6">
     <cfRule type="notContainsBlanks" dxfId="3" priority="43">
       <formula>LEN(TRIM(AD2))&gt;0</formula>
     </cfRule>
@@ -6231,30 +6258,30 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
   <dimension ref="A1:L11"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection sqref="A1:L4"/>
+    <sheetView workbookViewId="0">
+      <selection activeCell="J6" sqref="J6"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15"/>
   <cols>
-    <col min="1" max="1" width="6" style="69" bestFit="1" customWidth="1"/>
-    <col min="2" max="2" width="5.5703125" style="69" bestFit="1" customWidth="1"/>
-    <col min="3" max="3" width="6.42578125" style="69" bestFit="1" customWidth="1"/>
-    <col min="4" max="4" width="8.42578125" style="69" bestFit="1" customWidth="1"/>
-    <col min="5" max="5" width="8.85546875" style="69" customWidth="1"/>
-    <col min="6" max="6" width="46" style="69" bestFit="1" customWidth="1"/>
-    <col min="7" max="7" width="16.42578125" style="69" bestFit="1" customWidth="1"/>
-    <col min="8" max="8" width="13.85546875" style="69" bestFit="1" customWidth="1"/>
-    <col min="9" max="9" width="10.42578125" style="69" bestFit="1" customWidth="1"/>
-    <col min="10" max="10" width="19.42578125" style="69" bestFit="1" customWidth="1"/>
-    <col min="11" max="11" width="17.7109375" style="69" bestFit="1" customWidth="1"/>
-    <col min="12" max="12" width="20.140625" style="69" bestFit="1" customWidth="1"/>
-    <col min="13" max="16384" width="9.140625" style="69"/>
+    <col min="1" max="1" width="6" style="69" bestFit="1" customWidth="1" collapsed="1"/>
+    <col min="2" max="2" width="5.5703125" style="69" bestFit="1" customWidth="1" collapsed="1"/>
+    <col min="3" max="3" width="6.42578125" style="69" bestFit="1" customWidth="1" collapsed="1"/>
+    <col min="4" max="4" width="8.42578125" style="69" bestFit="1" customWidth="1" collapsed="1"/>
+    <col min="5" max="5" width="8.85546875" style="69" customWidth="1" collapsed="1"/>
+    <col min="6" max="6" width="46" style="69" bestFit="1" customWidth="1" collapsed="1"/>
+    <col min="7" max="7" width="16.42578125" style="69" bestFit="1" customWidth="1" collapsed="1"/>
+    <col min="8" max="8" width="13.85546875" style="69" bestFit="1" customWidth="1" collapsed="1"/>
+    <col min="9" max="9" width="10.42578125" style="69" bestFit="1" customWidth="1" collapsed="1"/>
+    <col min="10" max="10" width="19.42578125" style="69" bestFit="1" customWidth="1" collapsed="1"/>
+    <col min="11" max="11" width="17.7109375" style="69" bestFit="1" customWidth="1" collapsed="1"/>
+    <col min="12" max="12" width="20.140625" style="69" bestFit="1" customWidth="1" collapsed="1"/>
+    <col min="13" max="16384" width="9.140625" style="69" collapsed="1"/>
   </cols>
   <sheetData>
     <row r="1" spans="1:12" ht="15" customHeight="1">
       <c r="A1" s="87" t="s">
-        <v>1025</v>
+        <v>1019</v>
       </c>
       <c r="B1" s="87"/>
       <c r="C1" s="87"/>
@@ -6312,7 +6339,7 @@
     </row>
     <row r="5" spans="1:12">
       <c r="A5" s="83" t="s">
-        <v>1044</v>
+        <v>1038</v>
       </c>
       <c r="B5" s="83" t="s">
         <v>2</v>
@@ -6321,31 +6348,31 @@
         <v>936</v>
       </c>
       <c r="D5" s="83" t="s">
-        <v>1043</v>
+        <v>1037</v>
       </c>
       <c r="E5" s="83" t="s">
-        <v>1026</v>
+        <v>1020</v>
       </c>
       <c r="F5" s="83" t="s">
-        <v>1027</v>
+        <v>1021</v>
       </c>
       <c r="G5" s="83" t="s">
-        <v>1045</v>
+        <v>1039</v>
       </c>
       <c r="H5" s="83" t="s">
         <v>48</v>
       </c>
       <c r="I5" s="83" t="s">
-        <v>1028</v>
+        <v>1022</v>
       </c>
       <c r="J5" s="83" t="s">
-        <v>1036</v>
+        <v>1030</v>
       </c>
       <c r="K5" s="83" t="s">
         <v>922</v>
       </c>
       <c r="L5" s="83" t="s">
-        <v>1029</v>
+        <v>1023</v>
       </c>
     </row>
     <row r="6" spans="1:12">
@@ -6362,25 +6389,25 @@
         <v>UP901</v>
       </c>
       <c r="D6" s="84" t="s">
-        <v>1032</v>
+        <v>1026</v>
       </c>
       <c r="E6" s="84" t="s">
-        <v>1030</v>
+        <v>1024</v>
       </c>
       <c r="F6" s="84" t="s">
-        <v>1037</v>
+        <v>1031</v>
       </c>
       <c r="G6" s="67" t="str">
         <f>TestData!V2</f>
         <v>9949284540</v>
       </c>
-      <c r="H6" s="67">
+      <c r="H6" s="67" t="str">
         <f>TestData!AE2</f>
-        <v>0</v>
-      </c>
-      <c r="I6" s="67">
+        <v>440421</v>
+      </c>
+      <c r="I6" s="67" t="str">
         <f>TestData!AF2</f>
-        <v>0</v>
+        <v>01-06-1984</v>
       </c>
       <c r="J6" s="67">
         <f>TestData!AG2</f>
@@ -6409,10 +6436,10 @@
         <v>10</v>
       </c>
       <c r="E7" s="84" t="s">
-        <v>1031</v>
+        <v>1025</v>
       </c>
       <c r="F7" s="84" t="s">
-        <v>1038</v>
+        <v>1032</v>
       </c>
       <c r="G7" s="67" t="str">
         <f>TestData!J4</f>
@@ -6427,7 +6454,7 @@
         <v>01-06-1984</v>
       </c>
       <c r="J7" s="67" t="s">
-        <v>1046</v>
+        <v>1040</v>
       </c>
       <c r="K7" s="67" t="str">
         <f>TestData!R4</f>
@@ -6449,13 +6476,13 @@
         <v>UP901</v>
       </c>
       <c r="D8" s="84" t="s">
-        <v>1033</v>
+        <v>1027</v>
       </c>
       <c r="E8" s="84" t="s">
         <v>919</v>
       </c>
       <c r="F8" s="84" t="s">
-        <v>1039</v>
+        <v>1033</v>
       </c>
       <c r="G8" s="67" t="str">
         <f>TestData!S6</f>
@@ -6474,7 +6501,7 @@
         <v>UP901/0000312/2021</v>
       </c>
       <c r="K8" s="67" t="s">
-        <v>1046</v>
+        <v>1040</v>
       </c>
       <c r="L8" s="67"/>
     </row>
@@ -6492,13 +6519,13 @@
         <v>UP901</v>
       </c>
       <c r="D9" s="84" t="s">
-        <v>1032</v>
+        <v>1026</v>
       </c>
       <c r="E9" s="84" t="s">
-        <v>1034</v>
+        <v>1028</v>
       </c>
       <c r="F9" s="84" t="s">
-        <v>1041</v>
+        <v>1035</v>
       </c>
       <c r="G9" s="67" t="str">
         <f>TestData!V8</f>
@@ -6536,13 +6563,13 @@
         <v>UP901</v>
       </c>
       <c r="D10" s="84" t="s">
-        <v>1033</v>
+        <v>1027</v>
       </c>
       <c r="E10" s="84" t="s">
         <v>10</v>
       </c>
       <c r="F10" s="84" t="s">
-        <v>1040</v>
+        <v>1034</v>
       </c>
       <c r="G10" s="67" t="str">
         <f>TestData!AB10</f>
@@ -6557,7 +6584,7 @@
         <v/>
       </c>
       <c r="J10" s="67" t="s">
-        <v>1046</v>
+        <v>1040</v>
       </c>
       <c r="K10" s="67" t="str">
         <f>TestData!AO10</f>
@@ -6579,13 +6606,13 @@
         <v>UP901</v>
       </c>
       <c r="D11" s="84" t="s">
-        <v>1032</v>
+        <v>1026</v>
       </c>
       <c r="E11" s="84" t="s">
-        <v>1035</v>
+        <v>1029</v>
       </c>
       <c r="F11" s="84" t="s">
-        <v>1042</v>
+        <v>1036</v>
       </c>
       <c r="G11" s="67" t="str">
         <f>TestData!V12</f>
